--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8045BD2C-C8FE-9246-B48C-290AD5AF0702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863A23D5-D3B1-E449-AC0C-EA5DBE394E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37340" yWindow="5080" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="6220" yWindow="4260" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="347">
   <si>
     <t>Epoch</t>
   </si>
@@ -1114,6 +1114,9 @@
   </si>
   <si>
     <t>Hypoinduction profile</t>
+  </si>
+  <si>
+    <t>Clinical trials,Washington,'',Washngton DC,12345,USA</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1348,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2926,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2994,6 +2997,9 @@
       </c>
       <c r="E3" s="34" t="s">
         <v>289</v>
+      </c>
+      <c r="F3" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3042,32 +3048,32 @@
       <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -3198,16 +3204,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4352,7 +4358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3AD796-AEF0-9C47-A577-B3B29F4834C6}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863A23D5-D3B1-E449-AC0C-EA5DBE394E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E4D88D-B114-5F46-9019-F50E320984F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="4260" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="4560" yWindow="3320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="349">
   <si>
     <t>Epoch</t>
   </si>
@@ -1117,6 +1117,12 @@
   </si>
   <si>
     <t>Clinical trials,Washington,'',Washngton DC,12345,USA</t>
+  </si>
+  <si>
+    <t>Study Treatment Administration</t>
+  </si>
+  <si>
+    <t>Insulin Infusion</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1354,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2929,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3048,32 +3054,32 @@
       <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -3204,16 +3210,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3390,7 +3396,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4046,11 +4052,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DCBC64-AD78-403D-83E2-03FD5CA19DE2}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4092,7 +4098,7 @@
         <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>
@@ -4362,7 +4368,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4408,7 +4414,7 @@
         <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E4D88D-B114-5F46-9019-F50E320984F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B5FD0B-A2D8-A54A-9F09-6022B00AE20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38220" yWindow="5160" windowWidth="29040" windowHeight="15840" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="349">
   <si>
     <t>Epoch</t>
   </si>
@@ -361,12 +361,6 @@
   </si>
   <si>
     <t>protocolVersion</t>
-  </si>
-  <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
   </si>
   <si>
     <t>protocolStatus</t>
@@ -1123,6 +1117,12 @@
   </si>
   <si>
     <t>Insulin Infusion</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>CROSS1</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1275,9 +1275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1286,9 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,10 +1348,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1694,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1712,196 +1706,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
+      <c r="A1" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+        <v>348</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
+      <c r="A4" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+        <v>32</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>89</v>
+      <c r="A5" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+        <v>33</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>90</v>
+      <c r="A6" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+        <v>91</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B10" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="11">
-        <v>45047</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1946,6 +1910,36 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1967,16 +1961,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2059,19 +2053,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="5"/>
@@ -2151,25 +2145,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2178,7 +2172,7 @@
         <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>65</v>
@@ -2187,7 +2181,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>66</v>
@@ -2198,7 +2192,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>67</v>
@@ -2207,7 +2201,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>68</v>
@@ -2215,10 +2209,10 @@
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>67</v>
@@ -2227,7 +2221,7 @@
         <v>80</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
@@ -2236,10 +2230,10 @@
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>67</v>
@@ -2248,7 +2242,7 @@
         <v>81</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
@@ -2416,28 +2410,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2446,16 +2440,16 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D2" t="s">
-        <v>332</v>
-      </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -2464,24 +2458,24 @@
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
         <v>73</v>
@@ -2490,7 +2484,7 @@
         <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2518,83 +2512,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="26" t="s">
-        <v>252</v>
+      <c r="E5" s="24" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2622,148 +2616,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2789,105 +2783,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>137</v>
+      <c r="B1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>297</v>
+        <v>158</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>304</v>
+        <v>151</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>302</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>296</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>305</v>
+        <v>152</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>296</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>300</v>
+        <v>196</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>301</v>
+      <c r="D6" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2911,19 +2905,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>108</v>
+      <c r="A2" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2949,22 +2943,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2973,39 +2967,39 @@
         <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="B3" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>289</v>
-      </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3029,171 +3023,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="A9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>149</v>
+      <c r="A12" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>306</v>
+      <c r="A13" s="33" t="s">
+        <v>304</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3210,16 +3204,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3244,54 +3238,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E2" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>337</v>
+      <c r="C3" s="34" t="s">
+        <v>335</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3318,14 +3312,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3333,43 +3327,43 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>335</v>
+        <v>171</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3377,10 +3371,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3409,47 +3403,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>119</v>
+      <c r="A1" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
@@ -3467,13 +3461,13 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>123</v>
+      <c r="A3" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
@@ -3493,7 +3487,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
@@ -3513,7 +3507,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
@@ -3533,137 +3527,137 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>338</v>
+        <v>339</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>336</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>295</v>
+        <v>337</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>293</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N6" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="N6" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>339</v>
+      <c r="O6" s="35" t="s">
+        <v>337</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="13" t="s">
-        <v>146</v>
+      <c r="C7" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="L7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="39"/>
+      <c r="C8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="37"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="38" t="s">
-        <v>218</v>
+      <c r="L8" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>148</v>
+      <c r="C9" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>219</v>
+      <c r="B10" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -3684,8 +3678,8 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>255</v>
+      <c r="B11" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -3701,39 +3695,39 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="C12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
-        <v>223</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -3741,66 +3735,66 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="25" t="s">
+      <c r="C17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
         <v>226</v>
-      </c>
-      <c r="C17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -3820,8 +3814,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
-        <v>229</v>
+      <c r="B19" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -3856,11 +3850,11 @@
       </c>
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="33" t="s">
-        <v>232</v>
+      <c r="B20" s="31" t="s">
+        <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
@@ -3870,8 +3864,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="33" t="s">
-        <v>233</v>
+      <c r="B21" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -3882,11 +3876,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="33" t="s">
-        <v>234</v>
+      <c r="B22" s="31" t="s">
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>5</v>
@@ -3896,11 +3890,11 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
-        <v>237</v>
+      <c r="B23" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
@@ -3910,8 +3904,8 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
-        <v>238</v>
+      <c r="B24" s="23" t="s">
+        <v>236</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -3922,116 +3916,116 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="25" t="s">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="25" t="s">
+      <c r="P33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="25" t="s">
+    </row>
+    <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="25" t="s">
+      <c r="G36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="B37" s="23" t="s">
         <v>246</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B37" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
@@ -4052,7 +4046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DCBC64-AD78-403D-83E2-03FD5CA19DE2}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -4068,292 +4062,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>312</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="13" t="s">
-        <v>146</v>
+      <c r="C7" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>148</v>
+      <c r="C9" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
+      <c r="D14" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="D16" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="B17" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="D20" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="41"/>
+      <c r="B21" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4380,167 +4374,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="J6" s="32" t="s">
+      <c r="L6" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="M6" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="N6" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="O6" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="P6" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="Q6" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>318</v>
+      <c r="R6" s="30" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="13" t="s">
-        <v>146</v>
+      <c r="C7" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="C8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>148</v>
+      <c r="C9" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
-        <v>225</v>
+      <c r="B10" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4560,8 +4554,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
-        <v>232</v>
+      <c r="B11" s="23" t="s">
+        <v>230</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="7"/>
@@ -4582,11 +4576,11 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
-        <v>237</v>
+      <c r="B12" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>5</v>
@@ -4616,8 +4610,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="s">
-        <v>239</v>
+      <c r="B13" s="23" t="s">
+        <v>237</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>5</v>
@@ -4647,8 +4641,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
-        <v>244</v>
+      <c r="B14" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>5</v>
@@ -4692,8 +4686,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
-        <v>245</v>
+      <c r="B15" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>5</v>
@@ -4737,8 +4731,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>249</v>
+      <c r="B16" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>5</v>
@@ -4754,8 +4748,8 @@
       </c>
     </row>
     <row r="17" spans="2:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="25" t="s">
-        <v>250</v>
+      <c r="B17" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -4774,11 +4768,11 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
-        <v>230</v>
+      <c r="B18" s="31" t="s">
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R18" t="s">
         <v>5</v>
@@ -4810,394 +4804,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="28" t="b">
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="28" t="b">
+      <c r="D23" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="28" t="b">
+      <c r="D25" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="D27" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B34" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:4" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B35" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-    </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B5FD0B-A2D8-A54A-9F09-6022B00AE20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E15AE3-B8FD-1F48-A237-439690C4A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38220" yWindow="5160" windowWidth="29040" windowHeight="15840" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48860" yWindow="9900" windowWidth="42200" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="353">
   <si>
     <t>Epoch</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1027,14 +1024,6 @@
     <t>TL: TreatmentPhase</t>
   </si>
   <si>
-    <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving
-treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
-  </si>
-  <si>
-    <t>The proportion of patients achieving treatment success defined as either an increase in PG to &gt;70 mg/dL or an increase of &gt;20 mg/dL from nadir within 30 minutes after administration of glucagon. The nadir is defined
-as the minimum PG value at the time of or within 10 minutes following glucagon administration.</t>
-  </si>
-  <si>
     <t>To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG</t>
   </si>
   <si>
@@ -1123,6 +1112,27 @@
   </si>
   <si>
     <t>CROSS1</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>The proportion of patients achieving treatment success defined as either an increase in PG to &gt;70 mg/dL or an increase of &gt;20 mg/dL from nadir within 30 minutes after administration of glucagon. The nadir is defined as the minimum PG value at the time of or within 10 minutes following glucagon administration.</t>
+  </si>
+  <si>
+    <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1288,9 +1298,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1348,10 +1355,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1690,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1707,10 +1714,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1722,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1767,10 +1774,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1779,10 +1786,10 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1791,7 +1798,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="11"/>
       <c r="E8" s="1"/>
@@ -1801,10 +1808,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1813,10 +1820,10 @@
     </row>
     <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1825,10 +1832,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1837,10 +1844,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1849,7 +1856,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>16</v>
@@ -1861,10 +1868,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1962,7 +1969,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>34</v>
@@ -1976,7 +1983,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -1990,7 +1997,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -2004,7 +2011,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -2018,7 +2025,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -2129,261 +2136,354 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="59.5" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="G1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="F2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="K3" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2410,81 +2510,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" t="s">
         <v>328</v>
       </c>
-      <c r="C2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>331</v>
-      </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>111</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2513,82 +2613,82 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="24" t="s">
-        <v>250</v>
+      <c r="E5" s="23" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2617,147 +2717,147 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2784,104 +2884,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>149</v>
-      </c>
       <c r="D1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>295</v>
+      <c r="E2" s="33" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>302</v>
+        <v>150</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>301</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>296</v>
+        <v>299</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>303</v>
+        <v>151</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>296</v>
+        <v>300</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>297</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>299</v>
+      <c r="D6" s="33" t="s">
+        <v>298</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2906,18 +3006,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2967,39 +3067,39 @@
         <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>287</v>
-      </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3024,25 +3124,25 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+        <v>162</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -3057,137 +3157,137 @@
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+        <v>114</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+        <v>115</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3204,16 +3304,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3239,53 +3339,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3313,13 +3413,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3327,43 +3427,43 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>333</v>
+        <v>170</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3371,10 +3471,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3404,10 +3504,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -3415,33 +3515,33 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
@@ -3462,10 +3562,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -3531,111 +3631,111 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>336</v>
+      <c r="F6" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>333</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K6" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="L6" s="35" t="s">
-        <v>293</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>337</v>
+        <v>333</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>334</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="G7" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="M7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="37"/>
+        <v>144</v>
+      </c>
+      <c r="D8" s="36"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="36" t="s">
-        <v>216</v>
+      <c r="L8" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3646,18 +3746,18 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>217</v>
+      <c r="B10" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -3678,8 +3778,8 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>253</v>
+      <c r="B11" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -3695,39 +3795,39 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="C13" t="s">
-        <v>209</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -3735,66 +3835,66 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" t="s">
-        <v>205</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
-        <v>226</v>
+      <c r="B18" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -3814,8 +3914,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
-        <v>227</v>
+      <c r="B19" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -3850,22 +3950,22 @@
       </c>
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="30" t="s">
         <v>230</v>
-      </c>
-      <c r="C20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -3876,11 +3976,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
-        <v>232</v>
+      <c r="B22" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>5</v>
@@ -3890,22 +3990,22 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="23" t="s">
-        <v>236</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -3916,116 +4016,116 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="23" t="s">
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="23" t="s">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="23" t="s">
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="23" t="s">
+      <c r="P33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
+    </row>
+    <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="22" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="23" t="s">
+      <c r="G36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="B37" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B37" s="23" t="s">
-        <v>246</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
@@ -4063,10 +4163,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -4074,33 +4174,33 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
@@ -4108,10 +4208,10 @@
       <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
@@ -4119,10 +4219,10 @@
       <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
@@ -4130,42 +4230,42 @@
       <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+        <v>144</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -4175,179 +4275,179 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
-        <v>223</v>
+      <c r="B10" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+        <v>203</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
-        <v>225</v>
+      <c r="B11" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+        <v>228</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="C13"/>
+      <c r="D13" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
-        <v>235</v>
-      </c>
       <c r="C14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+        <v>205</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="B15" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B21" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B21" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="39"/>
+      <c r="D21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4375,50 +4475,50 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
@@ -4426,12 +4526,12 @@
       <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
@@ -4439,12 +4539,12 @@
       <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
@@ -4452,71 +4552,71 @@
       <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="K6" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="R6" s="29" t="s">
         <v>315</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+        <v>144</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -4526,15 +4626,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
-        <v>223</v>
+      <c r="B10" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4554,8 +4654,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
-        <v>230</v>
+      <c r="B11" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="7"/>
@@ -4576,11 +4676,11 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
-        <v>235</v>
+      <c r="B12" s="22" t="s">
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>5</v>
@@ -4610,8 +4710,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
-        <v>237</v>
+      <c r="B13" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>5</v>
@@ -4641,8 +4741,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
-        <v>242</v>
+      <c r="B14" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>5</v>
@@ -4686,8 +4786,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>243</v>
+      <c r="B15" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>5</v>
@@ -4732,25 +4832,25 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
-        <v>248</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4768,11 +4868,11 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="31" t="s">
-        <v>228</v>
+      <c r="B18" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R18" t="s">
         <v>5</v>
@@ -4804,394 +4904,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="26" t="b">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="26" t="b">
+      <c r="D23" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="26" t="b">
+      <c r="D25" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+        <v>247</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E15AE3-B8FD-1F48-A237-439690C4A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37C2E0-F309-2047-AD95-46589CCA89FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48860" yWindow="9900" windowWidth="42200" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48860" yWindow="9900" windowWidth="42200" windowHeight="15840" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -922,9 +922,6 @@
     <t>LY900018</t>
   </si>
   <si>
-    <t>5-1-28, ISOGAMIDORI, CHUO-KU LILLY PLAZA ONE BLDG|KOBE|HYOGO||651-0086|JP</t>
-  </si>
-  <si>
     <t>Eli Lilly Japan K.K</t>
   </si>
   <si>
@@ -1099,9 +1096,6 @@
     <t>Hypoinduction profile</t>
   </si>
   <si>
-    <t>Clinical trials,Washington,'',Washngton DC,12345,USA</t>
-  </si>
-  <si>
     <t>Study Treatment Administration</t>
   </si>
   <si>
@@ -1133,6 +1127,12 @@
   </si>
   <si>
     <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
+  </si>
+  <si>
+    <t>5-1-28, ISOGAMIDORI, CHUO-KU LILLY PLAZA ONE BLDG|HYOGO|KOBE||651-0086|JP</t>
+  </si>
+  <si>
+    <t>Clinical trials,'',Washington,Washington DC,12345,USA</t>
   </si>
 </sst>
 </file>
@@ -1714,10 +1714,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2138,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2164,10 +2164,10 @@
         <v>60</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>61</v>
@@ -2179,13 +2179,13 @@
         <v>62</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>350</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>63</v>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>64</v>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>65</v>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>66</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>67</v>
@@ -2237,11 +2237,11 @@
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>66</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
@@ -2260,11 +2260,11 @@
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>66</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
@@ -2540,16 +2540,16 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" t="s">
         <v>327</v>
-      </c>
-      <c r="E2" t="s">
-        <v>328</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -2558,7 +2558,7 @@
         <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2913,7 +2913,7 @@
         <v>157</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2921,16 +2921,16 @@
         <v>150</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2938,16 +2938,16 @@
         <v>151</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,10 +2961,10 @@
         <v>195</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2978,7 +2978,7 @@
         <v>155</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>158</v>
@@ -3029,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3039,7 +3039,7 @@
     <col min="2" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="72.33203125" customWidth="1"/>
+    <col min="6" max="6" width="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3067,10 +3067,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
         <v>113</v>
@@ -3079,27 +3079,27 @@
         <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" t="s">
         <v>289</v>
       </c>
-      <c r="D3" t="s">
-        <v>290</v>
-      </c>
       <c r="E3" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3224,7 +3224,7 @@
         <v>115</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>149</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>149</v>
@@ -3356,13 +3356,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>179</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>179</v>
@@ -3452,7 +3452,7 @@
         <v>170</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3634,37 +3634,37 @@
         <v>213</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N6" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="K6" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="34" t="s">
         <v>333</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>334</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>248</v>
@@ -3954,7 +3954,7 @@
         <v>229</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
@@ -3980,7 +3980,7 @@
         <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>5</v>
@@ -4166,7 +4166,7 @@
         <v>116</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
@@ -4192,7 +4192,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -4231,22 +4231,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="I6" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4478,7 +4478,7 @@
         <v>116</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
@@ -4508,7 +4508,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -4556,7 +4556,7 @@
         <v>271</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>269</v>
@@ -4595,7 +4595,7 @@
         <v>279</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37C2E0-F309-2047-AD95-46589CCA89FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E122C468-6478-864B-A9C5-44F0A6DE09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48860" yWindow="9900" windowWidth="42200" windowHeight="15840" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48860" yWindow="9900" windowWidth="42200" windowHeight="15840" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="HypoInduction" sheetId="18" r:id="rId7"/>
     <sheet name="TreatmentPhase" sheetId="17" r:id="rId8"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId9"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId10"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId10"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId11"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId12"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId13"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId14"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId15"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId16"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="392">
   <si>
     <t>Epoch</t>
   </si>
@@ -177,34 +178,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1133,13 +1116,148 @@
   </si>
   <si>
     <t>Clinical trials,'',Washington,Washington DC,12345,USA</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1224,6 +1342,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1257,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1355,10 +1479,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1366,6 +1490,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1714,10 +1840,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1729,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1774,10 +1900,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1786,10 +1912,10 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1798,7 +1924,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" s="11"/>
       <c r="E8" s="1"/>
@@ -1808,10 +1934,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1820,10 +1946,10 @@
     </row>
     <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1832,10 +1958,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1844,10 +1970,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1856,7 +1982,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>16</v>
@@ -1868,10 +1994,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1954,87 +2080,212 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4A8646-D207-4F4D-BE0D-39D6443857DD}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="D2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L2" t="s">
+        <v>376</v>
+      </c>
+      <c r="M2" t="s">
+        <v>377</v>
+      </c>
+      <c r="N2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R2" t="s">
+        <v>382</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
+        <v>368</v>
+      </c>
+      <c r="E3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K3" t="s">
+        <v>389</v>
+      </c>
+      <c r="L3" t="s">
+        <v>390</v>
+      </c>
+      <c r="M3" t="s">
+        <v>377</v>
+      </c>
+      <c r="N3" t="s">
+        <v>378</v>
+      </c>
+      <c r="O3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P3" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>381</v>
+      </c>
+      <c r="R3" t="s">
+        <v>382</v>
+      </c>
+      <c r="S3" s="45" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2043,6 +2294,68 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2061,72 +2374,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -2158,127 +2471,127 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2491,7 +2804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2511,80 +2824,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2613,82 +2926,82 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="23" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +3010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2717,147 +3030,147 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +3179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2884,104 +3197,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2991,7 +3304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3006,18 +3319,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +3342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3067,39 +3380,39 @@
         <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3124,10 +3437,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -3135,10 +3448,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -3148,39 +3461,39 @@
       <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -3191,7 +3504,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -3202,7 +3515,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -3210,10 +3523,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
@@ -3221,10 +3534,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -3232,19 +3545,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>23</v>
@@ -3252,42 +3565,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3304,16 +3617,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3339,53 +3652,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3413,13 +3726,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3427,43 +3740,43 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3471,10 +3784,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3504,10 +3817,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -3516,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
@@ -3524,10 +3837,10 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
@@ -3538,10 +3851,10 @@
     </row>
     <row r="2" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
@@ -3562,10 +3875,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -3631,96 +3944,96 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D8" s="36"/>
       <c r="F8" s="2"/>
@@ -3729,13 +4042,13 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="L8" s="35" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3746,7 +4059,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -3754,10 +4067,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -3779,7 +4092,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -3796,10 +4109,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -3810,10 +4123,10 @@
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>5</v>
@@ -3827,7 +4140,7 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -3836,7 +4149,7 @@
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="1" t="s">
@@ -3869,10 +4182,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -3883,10 +4196,10 @@
     </row>
     <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -3894,7 +4207,7 @@
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -3915,7 +4228,7 @@
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -3951,10 +4264,10 @@
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
@@ -3965,7 +4278,7 @@
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -3977,10 +4290,10 @@
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="30" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>5</v>
@@ -3991,10 +4304,10 @@
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
@@ -4005,7 +4318,7 @@
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -4017,12 +4330,12 @@
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -4030,7 +4343,7 @@
     </row>
     <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -4041,7 +4354,7 @@
     </row>
     <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
@@ -4052,7 +4365,7 @@
     </row>
     <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -4069,7 +4382,7 @@
     </row>
     <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -4077,7 +4390,7 @@
     </row>
     <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
@@ -4085,7 +4398,7 @@
     </row>
     <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
@@ -4093,7 +4406,7 @@
     </row>
     <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>5</v>
@@ -4101,12 +4414,12 @@
     </row>
     <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
@@ -4114,7 +4427,7 @@
     </row>
     <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>5</v>
@@ -4125,7 +4438,7 @@
     </row>
     <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
@@ -4163,10 +4476,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -4174,10 +4487,10 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
@@ -4189,10 +4502,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -4231,36 +4544,36 @@
         <v>10</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -4275,15 +4588,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -4294,10 +4607,10 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>5</v>
@@ -4310,7 +4623,7 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="37" t="s">
@@ -4326,7 +4639,7 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="37" t="s">
@@ -4342,10 +4655,10 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>5</v>
@@ -4358,7 +4671,7 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37" t="s">
@@ -4373,7 +4686,7 @@
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>5</v>
@@ -4386,7 +4699,7 @@
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>5</v>
@@ -4399,7 +4712,7 @@
     </row>
     <row r="18" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>5</v>
@@ -4414,7 +4727,7 @@
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -4425,7 +4738,7 @@
     </row>
     <row r="20" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>5</v>
@@ -4437,7 +4750,7 @@
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>5</v>
@@ -4475,10 +4788,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -4488,10 +4801,10 @@
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
@@ -4505,10 +4818,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -4553,63 +4866,63 @@
         <v>10</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="J6" s="29" t="s">
+      <c r="P6" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="Q6" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="L6" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>279</v>
-      </c>
       <c r="R6" s="29" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -4626,15 +4939,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4655,7 +4968,7 @@
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="7"/>
@@ -4677,10 +4990,10 @@
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>5</v>
@@ -4711,7 +5024,7 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>5</v>
@@ -4742,7 +5055,7 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>5</v>
@@ -4787,7 +5100,7 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>5</v>
@@ -4832,7 +5145,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>5</v>
@@ -4849,7 +5162,7 @@
     </row>
     <row r="17" spans="2:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -4869,10 +5182,10 @@
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="R18" t="s">
         <v>5</v>
@@ -4905,385 +5218,385 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C3" s="25" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C5" s="25" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C14" s="25" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C16" s="25" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C17" s="25" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C23" s="25" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C25" s="25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C27" s="25" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E122C468-6478-864B-A9C5-44F0A6DE09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74501CA3-9882-274A-B4A1-02C1710980E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48860" yWindow="9900" windowWidth="42200" windowHeight="15840" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48860" yWindow="9900" windowWidth="42200" windowHeight="15840" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="394">
   <si>
     <t>Epoch</t>
   </si>
@@ -193,46 +193,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1251,6 +1221,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1395,7 +1401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,14 +1480,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1490,8 +1497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1832,18 +1837,18 @@
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>337</v>
+      <c r="A1" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1851,11 +1856,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>175</v>
+      <c r="B2" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1863,10 +1868,10 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1"/>
@@ -1875,10 +1880,10 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="1"/>
@@ -1887,10 +1892,10 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="1"/>
@@ -1899,11 +1904,11 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>84</v>
+      <c r="A6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1911,11 +1916,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>176</v>
+      <c r="A7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1923,21 +1928,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>177</v>
+      <c r="A9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1945,11 +1950,11 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>275</v>
+      <c r="A10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1957,11 +1962,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>91</v>
+      <c r="A11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1969,11 +1974,11 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>92</v>
+      <c r="A12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1981,10 +1986,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="1"/>
@@ -1993,11 +1998,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>90</v>
+      <c r="A14" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2005,70 +2010,70 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2083,7 +2088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4A8646-D207-4F4D-BE0D-39D6443857DD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2112,180 +2117,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="L1" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L2" t="s">
         <v>366</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>367</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>368</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="P2" t="s">
         <v>370</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>371</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>372</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" s="39" t="s">
         <v>373</v>
-      </c>
-      <c r="J2" t="s">
-        <v>374</v>
-      </c>
-      <c r="K2" t="s">
-        <v>375</v>
-      </c>
-      <c r="L2" t="s">
-        <v>376</v>
-      </c>
-      <c r="M2" t="s">
-        <v>377</v>
-      </c>
-      <c r="N2" t="s">
-        <v>378</v>
-      </c>
-      <c r="O2" t="s">
-        <v>379</v>
-      </c>
-      <c r="P2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R2" t="s">
-        <v>382</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L3" t="s">
+        <v>380</v>
+      </c>
+      <c r="M3" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" t="s">
         <v>368</v>
       </c>
-      <c r="E3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>369</v>
+      </c>
+      <c r="P3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q3" t="s">
         <v>371</v>
       </c>
-      <c r="H3" t="s">
-        <v>387</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="R3" t="s">
+        <v>372</v>
+      </c>
+      <c r="S3" s="39" t="s">
         <v>373</v>
-      </c>
-      <c r="J3" t="s">
-        <v>388</v>
-      </c>
-      <c r="K3" t="s">
-        <v>389</v>
-      </c>
-      <c r="L3" t="s">
-        <v>390</v>
-      </c>
-      <c r="M3" t="s">
-        <v>377</v>
-      </c>
-      <c r="N3" t="s">
-        <v>378</v>
-      </c>
-      <c r="O3" t="s">
-        <v>379</v>
-      </c>
-      <c r="P3" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>381</v>
-      </c>
-      <c r="R3" t="s">
-        <v>382</v>
-      </c>
-      <c r="S3" s="45" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2309,44 +2314,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2357,89 +2362,96 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2470,333 +2482,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
+      <c r="B1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="A2" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>61</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>61</v>
+        <v>302</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
-        <v>61</v>
+        <v>305</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2823,81 +2835,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="D1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>77</v>
+      <c r="G1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2919,89 +2931,89 @@
     <col min="2" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24" style="6" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>119</v>
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="23" t="s">
-        <v>243</v>
+      <c r="E5" s="22" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3029,148 +3041,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>128</v>
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3196,105 +3208,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>128</v>
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>287</v>
+        <v>141</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>294</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>284</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>295</v>
+        <v>135</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>290</v>
+      <c r="D5" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>291</v>
+        <v>139</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3318,19 +3330,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>99</v>
+      <c r="A1" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>99</v>
+      <c r="A2" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3356,22 +3368,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3379,40 +3391,40 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>277</v>
+      <c r="B2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>282</v>
+      <c r="A3" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>279</v>
+        <v>273</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3436,197 +3448,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="A2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="A10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>147</v>
+      <c r="A13" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>147</v>
+      <c r="A14" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3651,58 +3663,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>172</v>
+      <c r="A1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>325</v>
+      <c r="A2" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>315</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>325</v>
+      <c r="A3" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3725,14 +3737,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>161</v>
+      <c r="A1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3740,43 +3752,43 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>323</v>
+        <v>154</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3784,10 +3796,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3816,47 +3828,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="E1" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+        <v>169</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
@@ -3874,13 +3886,13 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>114</v>
+      <c r="A3" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
@@ -3898,9 +3910,9 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
@@ -3918,9 +3930,9 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
@@ -3938,139 +3950,139 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>326</v>
+        <v>319</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>316</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>285</v>
+        <v>317</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>275</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>327</v>
+        <v>316</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>317</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
-        <v>137</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="36"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="35"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="35" t="s">
-        <v>209</v>
+      <c r="L8" s="34" t="s">
+        <v>199</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>139</v>
+      <c r="C9" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>210</v>
+      <c r="B10" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -4091,8 +4103,8 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>246</v>
+      <c r="B11" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -4108,11 +4120,11 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
-        <v>212</v>
+      <c r="B12" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -4122,11 +4134,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="22" t="s">
-        <v>213</v>
+      <c r="B13" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>5</v>
@@ -4139,8 +4151,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
-        <v>214</v>
+      <c r="B14" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -4148,10 +4160,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="21"/>
+      <c r="B15" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
@@ -4181,11 +4193,11 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="22" t="s">
-        <v>216</v>
+      <c r="B16" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -4195,19 +4207,19 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
-        <v>217</v>
+      <c r="B17" s="21" t="s">
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>219</v>
+      <c r="B18" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -4227,8 +4239,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
-        <v>220</v>
+      <c r="B19" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -4263,11 +4275,11 @@
       </c>
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
-        <v>223</v>
+      <c r="B20" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
@@ -4277,8 +4289,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
-        <v>224</v>
+      <c r="B21" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -4289,11 +4301,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
-        <v>225</v>
+      <c r="B22" s="29" t="s">
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>5</v>
@@ -4303,11 +4315,11 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>228</v>
+      <c r="B23" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
@@ -4317,8 +4329,8 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="22" t="s">
-        <v>229</v>
+      <c r="B24" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -4329,21 +4341,21 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
-        <v>230</v>
+      <c r="B25" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
-        <v>231</v>
+      <c r="B26" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
-        <v>232</v>
+      <c r="B27" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -4353,8 +4365,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
-        <v>194</v>
+      <c r="B28" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
@@ -4364,8 +4376,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>195</v>
+      <c r="B29" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -4381,53 +4393,53 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
-        <v>196</v>
+      <c r="B30" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="s">
-        <v>233</v>
+      <c r="B31" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
-        <v>234</v>
+      <c r="B32" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
-        <v>235</v>
+      <c r="B33" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
-        <v>236</v>
+      <c r="B34" s="21" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="22" t="s">
-        <v>237</v>
+      <c r="B35" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
-        <v>238</v>
+      <c r="B36" s="21" t="s">
+        <v>228</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>5</v>
@@ -4437,8 +4449,8 @@
       </c>
     </row>
     <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B37" s="22" t="s">
-        <v>239</v>
+      <c r="B37" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
@@ -4471,296 +4483,296 @@
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="13.33203125" style="7" customWidth="1"/>
+    <col min="4" max="9" width="13.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>114</v>
+      <c r="A3" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>304</v>
+      <c r="D6" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
-        <v>137</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>139</v>
+      <c r="C9" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="C12"/>
+      <c r="D12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
+      <c r="D16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
+      <c r="D18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="D20" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="38"/>
+      <c r="B21" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4783,370 +4795,370 @@
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="17" width="13.33203125" style="7" customWidth="1"/>
+    <col min="4" max="17" width="13.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>114</v>
+      <c r="A3" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="D6" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q6" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>308</v>
+      <c r="R6" s="28" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
-        <v>137</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>139</v>
+      <c r="C9" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
-        <v>216</v>
+      <c r="B10" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
-        <v>223</v>
+      <c r="B11" s="21" t="s">
+        <v>213</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
-        <v>228</v>
+      <c r="B12" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>240</v>
-      </c>
       <c r="H16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5161,8 +5173,8 @@
       </c>
     </row>
     <row r="17" spans="2:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
-        <v>241</v>
+      <c r="B17" s="21" t="s">
+        <v>231</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -5181,11 +5193,11 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>221</v>
+      <c r="B18" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="R18" t="s">
         <v>5</v>
@@ -5217,394 +5229,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>260</v>
+      <c r="A1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="B12" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:4" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B35" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74501CA3-9882-274A-B4A1-02C1710980E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30733B8A-7227-C74F-8C98-C2E0CD665EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48860" yWindow="9900" windowWidth="42200" windowHeight="15840" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="391">
   <si>
     <t>Epoch</t>
   </si>
@@ -193,16 +193,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1232,12 +1226,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1250,13 +1238,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1477,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1845,10 +1836,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1860,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1905,10 +1896,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1917,10 +1908,10 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1929,7 +1920,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="10"/>
       <c r="E8" s="1"/>
@@ -1939,10 +1930,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1951,10 +1942,10 @@
     </row>
     <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1963,10 +1954,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1975,10 +1966,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1987,7 +1978,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>16</v>
@@ -1999,10 +1990,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2118,179 +2109,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
         <v>356</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>357</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="H2" t="s">
         <v>360</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>361</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>362</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>363</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>364</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>365</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>366</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>367</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>368</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>369</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>370</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="39" t="s">
         <v>371</v>
-      </c>
-      <c r="R2" t="s">
-        <v>372</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" t="s">
         <v>374</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" t="s">
         <v>375</v>
       </c>
-      <c r="D3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" t="s">
         <v>376</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="G3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>377</v>
       </c>
-      <c r="I3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>378</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>365</v>
+      </c>
+      <c r="N3" t="s">
+        <v>366</v>
+      </c>
+      <c r="O3" t="s">
+        <v>367</v>
+      </c>
+      <c r="P3" t="s">
         <v>379</v>
       </c>
-      <c r="L3" t="s">
-        <v>380</v>
-      </c>
-      <c r="M3" t="s">
-        <v>367</v>
-      </c>
-      <c r="N3" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>369</v>
       </c>
-      <c r="P3" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>370</v>
+      </c>
+      <c r="S3" s="39" t="s">
         <v>371</v>
-      </c>
-      <c r="R3" t="s">
-        <v>372</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2315,13 +2306,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>36</v>
@@ -2329,13 +2320,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>37</v>
@@ -2343,13 +2334,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
@@ -2362,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2375,45 +2366,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="B2" t="s">
         <v>384</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B2" t="s">
-        <v>388</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2421,37 +2409,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" t="s">
         <v>389</v>
-      </c>
-      <c r="B3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2483,127 +2464,127 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="J1" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2836,80 +2817,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
         <v>308</v>
       </c>
-      <c r="C2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" t="s">
-        <v>310</v>
-      </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
         <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2938,82 +2919,82 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3042,147 +3023,147 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3209,104 +3190,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>276</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>276</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D6" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3331,18 +3312,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3392,39 +3373,39 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="D3" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" t="s">
-        <v>273</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3430,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -3460,10 +3441,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -3473,39 +3454,39 @@
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="B5" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -3516,7 +3497,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -3527,7 +3508,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -3535,10 +3516,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -3546,10 +3527,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -3557,19 +3538,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>23</v>
@@ -3577,42 +3558,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3629,16 +3610,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3664,53 +3645,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>288</v>
-      </c>
       <c r="C2" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>289</v>
-      </c>
       <c r="C3" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3738,13 +3719,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3752,43 +3733,43 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3796,10 +3777,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3829,10 +3810,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -3841,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
@@ -3849,10 +3830,10 @@
       <c r="I1" s="43"/>
       <c r="J1" s="43"/>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M1" s="43"/>
       <c r="N1" s="43"/>
@@ -3863,10 +3844,10 @@
     </row>
     <row r="2" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
@@ -3887,10 +3868,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
@@ -3956,96 +3937,96 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N6" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="N6" s="33" t="s">
-        <v>318</v>
-      </c>
       <c r="O6" s="33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="L7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="35"/>
       <c r="F8" s="2"/>
@@ -4054,13 +4035,13 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="L8" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4071,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -4079,10 +4060,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -4104,7 +4085,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -4121,10 +4102,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -4135,10 +4116,10 @@
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>5</v>
@@ -4152,7 +4133,7 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -4161,7 +4142,7 @@
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="1" t="s">
@@ -4194,10 +4175,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -4208,10 +4189,10 @@
     </row>
     <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -4219,7 +4200,7 @@
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -4240,7 +4221,7 @@
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -4276,10 +4257,10 @@
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
@@ -4290,7 +4271,7 @@
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -4302,10 +4283,10 @@
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>5</v>
@@ -4316,10 +4297,10 @@
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
@@ -4330,7 +4311,7 @@
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -4342,12 +4323,12 @@
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -4355,7 +4336,7 @@
     </row>
     <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -4366,7 +4347,7 @@
     </row>
     <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
@@ -4377,7 +4358,7 @@
     </row>
     <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -4394,7 +4375,7 @@
     </row>
     <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -4402,7 +4383,7 @@
     </row>
     <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
@@ -4410,7 +4391,7 @@
     </row>
     <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
@@ -4418,7 +4399,7 @@
     </row>
     <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>5</v>
@@ -4426,12 +4407,12 @@
     </row>
     <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
@@ -4439,7 +4420,7 @@
     </row>
     <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>5</v>
@@ -4450,7 +4431,7 @@
     </row>
     <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
@@ -4488,10 +4469,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -4499,10 +4480,10 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
@@ -4514,10 +4495,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
@@ -4556,36 +4537,36 @@
         <v>10</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -4600,15 +4581,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
@@ -4619,10 +4600,10 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>5</v>
@@ -4635,7 +4616,7 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="36" t="s">
@@ -4651,7 +4632,7 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="36" t="s">
@@ -4667,10 +4648,10 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>5</v>
@@ -4683,7 +4664,7 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="36" t="s">
@@ -4698,7 +4679,7 @@
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>5</v>
@@ -4711,7 +4692,7 @@
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>5</v>
@@ -4724,7 +4705,7 @@
     </row>
     <row r="18" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>5</v>
@@ -4739,7 +4720,7 @@
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -4750,7 +4731,7 @@
     </row>
     <row r="20" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>5</v>
@@ -4762,7 +4743,7 @@
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>5</v>
@@ -4800,10 +4781,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -4813,10 +4794,10 @@
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
@@ -4830,10 +4811,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
@@ -4878,63 +4859,63 @@
         <v>10</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="J6" s="28" t="s">
+      <c r="L6" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="M6" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="N6" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="O6" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="P6" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="Q6" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>263</v>
-      </c>
       <c r="R6" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -4951,15 +4932,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4980,7 +4961,7 @@
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="6"/>
@@ -5002,10 +4983,10 @@
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>5</v>
@@ -5036,7 +5017,7 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
@@ -5067,7 +5048,7 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
@@ -5112,7 +5093,7 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>5</v>
@@ -5157,7 +5138,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>5</v>
@@ -5174,7 +5155,7 @@
     </row>
     <row r="17" spans="2:18" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -5194,10 +5175,10 @@
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R18" t="s">
         <v>5</v>
@@ -5230,385 +5211,385 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C14" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C17" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C25" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="24" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E53D2CC-12F6-7649-AC01-701A76E0C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52094C1-38B7-164A-A674-6259D0AF08E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24780" yWindow="500" windowWidth="67920" windowHeight="26240" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" firstSheet="1" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1610,7 +1610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1698,12 +1698,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1829,10 +1823,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2165,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2432,7 +2426,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="71.5" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
@@ -3535,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3890,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3958,29 +3952,29 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4511,7 +4505,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4547,32 +4541,32 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -4703,16 +4697,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4723,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4885,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="E43" sqref="E43"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52094C1-38B7-164A-A674-6259D0AF08E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D308C14-7E31-ED45-922E-65F04EC1800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" firstSheet="1" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="508">
   <si>
     <t>Screening</t>
   </si>
@@ -288,9 +288,6 @@
     <t>protocolStatus</t>
   </si>
   <si>
-    <t>Something Public</t>
-  </si>
-  <si>
     <t>Somethign Clever</t>
   </si>
   <si>
@@ -525,13 +522,7 @@
     <t>Data Generated Within Study</t>
   </si>
   <si>
-    <t>Cross Over 1</t>
-  </si>
-  <si>
     <t>Test of a cross over study</t>
-  </si>
-  <si>
-    <t>Cross Over</t>
   </si>
   <si>
     <t>Period 1</t>
@@ -1604,6 +1595,12 @@
   </si>
   <si>
     <t>Discretion</t>
+  </si>
+  <si>
+    <t>A Phase 3 Study of Nasal Glucagon (LY900018) Compared to Intramuscular Glucagon for Treatment of Insulin-induced Hypoglycemia in Japanese Patients with Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>A Study of Nasal Glucagon (LY900018) in Japanese Participants With Diabetes Mellitus</t>
   </si>
 </sst>
 </file>
@@ -2159,14 +2156,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="5" customWidth="1"/>
@@ -2176,22 +2173,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>150</v>
+      <c r="B2" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2251,7 +2248,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2260,7 +2257,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="9"/>
       <c r="E8" s="1"/>
@@ -2268,24 +2265,24 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>152</v>
+      <c r="B9" s="9" t="s">
+        <v>507</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2296,9 +2293,7 @@
       <c r="A11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2309,7 +2304,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2333,7 +2328,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2435,134 +2430,134 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -2591,32 +2586,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -2625,13 +2620,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -2639,18 +2634,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2659,13 +2654,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -2673,18 +2668,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2693,13 +2688,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2707,13 +2702,13 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -2722,13 +2717,13 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -2737,13 +2732,13 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -2752,13 +2747,13 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -2767,13 +2762,13 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -2782,13 +2777,13 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -2797,13 +2792,13 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -2811,18 +2806,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2831,13 +2826,13 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -2845,18 +2840,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -2864,18 +2859,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -2884,13 +2879,13 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -2899,13 +2894,13 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -2914,13 +2909,13 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2929,13 +2924,13 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -2944,13 +2939,13 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -2958,18 +2953,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -2978,13 +2973,13 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -2992,18 +2987,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -3012,13 +3007,13 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -3026,18 +3021,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -3046,13 +3041,13 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -3061,13 +3056,13 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -3076,13 +3071,13 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -3091,13 +3086,13 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -3106,13 +3101,13 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -3121,13 +3116,13 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -3136,13 +3131,13 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3194,61 +3189,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3256,58 +3251,58 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" t="s">
         <v>311</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>313</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="I2" t="s">
         <v>315</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>317</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>318</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>319</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>320</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>321</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>322</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>323</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>324</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="33" t="s">
         <v>325</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>326</v>
-      </c>
-      <c r="R2" t="s">
-        <v>327</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3315,58 +3310,58 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="G3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H3" t="s">
         <v>329</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J3" t="s">
         <v>330</v>
       </c>
-      <c r="D3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>331</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>332</v>
       </c>
-      <c r="I3" t="s">
-        <v>318</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>319</v>
+      </c>
+      <c r="N3" t="s">
+        <v>320</v>
+      </c>
+      <c r="O3" t="s">
+        <v>321</v>
+      </c>
+      <c r="P3" t="s">
         <v>333</v>
       </c>
-      <c r="K3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M3" t="s">
-        <v>322</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>323</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>324</v>
       </c>
-      <c r="P3" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>326</v>
-      </c>
-      <c r="R3" t="s">
-        <v>327</v>
-      </c>
       <c r="S3" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3391,13 +3386,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>28</v>
@@ -3408,10 +3403,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
@@ -3422,10 +3417,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>30</v>
@@ -3457,25 +3452,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>32</v>
@@ -3483,10 +3478,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3500,24 +3495,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" t="s">
         <v>342</v>
-      </c>
-      <c r="B3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3555,10 +3550,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>35</v>
@@ -3570,13 +3565,13 @@
         <v>36</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>37</v>
@@ -3588,7 +3583,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>38</v>
@@ -3598,7 +3593,7 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>39</v>
@@ -3610,7 +3605,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>40</v>
@@ -3620,7 +3615,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>41</v>
@@ -3628,11 +3623,11 @@
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>40</v>
@@ -3642,7 +3637,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
@@ -3651,11 +3646,11 @@
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>40</v>
@@ -3665,7 +3660,7 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
@@ -3886,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3931,16 +3926,16 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" t="s">
         <v>267</v>
-      </c>
-      <c r="C2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" t="s">
-        <v>270</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -3949,24 +3944,24 @@
         <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
         <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -3975,7 +3970,7 @@
         <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4001,87 +3996,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4113,144 +4108,144 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4280,101 +4275,101 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="D1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E2" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +4384,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4426,39 +4421,39 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
-      </c>
       <c r="E3" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4481,18 +4476,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4517,10 +4512,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -4528,10 +4523,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -4551,7 +4546,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -4562,7 +4557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4573,7 +4568,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4584,7 +4579,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -4595,7 +4590,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -4603,10 +4598,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -4614,10 +4609,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -4625,19 +4620,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -4645,42 +4640,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4732,53 +4727,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4806,13 +4801,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4820,43 +4815,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4864,10 +4859,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4896,60 +4891,60 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -4957,13 +4952,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4973,139 +4968,139 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>15</v>
@@ -5115,46 +5110,46 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5165,15 +5160,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -5192,7 +5187,7 @@
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -5209,10 +5204,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -5223,10 +5218,10 @@
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>1</v>
@@ -5240,7 +5235,7 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -5249,7 +5244,7 @@
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
@@ -5282,10 +5277,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -5296,10 +5291,10 @@
     </row>
     <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -5307,7 +5302,7 @@
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -5328,7 +5323,7 @@
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -5364,10 +5359,10 @@
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1</v>
@@ -5378,7 +5373,7 @@
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -5390,10 +5385,10 @@
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>1</v>
@@ -5404,10 +5399,10 @@
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -5418,7 +5413,7 @@
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -5430,12 +5425,12 @@
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -5443,7 +5438,7 @@
     </row>
     <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -5454,7 +5449,7 @@
     </row>
     <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -5465,7 +5460,7 @@
     </row>
     <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -5482,7 +5477,7 @@
     </row>
     <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -5490,7 +5485,7 @@
     </row>
     <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -5498,7 +5493,7 @@
     </row>
     <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -5506,7 +5501,7 @@
     </row>
     <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>1</v>
@@ -5514,12 +5509,12 @@
     </row>
     <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
@@ -5527,7 +5522,7 @@
     </row>
     <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1</v>
@@ -5538,7 +5533,7 @@
     </row>
     <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
@@ -5573,39 +5568,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" t="s">
         <v>422</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>423</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>424</v>
-      </c>
-      <c r="G1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -5619,13 +5614,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -5641,68 +5636,68 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G5" t="s">
         <v>423</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>424</v>
       </c>
-      <c r="F5" t="s">
-        <v>425</v>
-      </c>
-      <c r="G5" t="s">
-        <v>426</v>
-      </c>
-      <c r="H5" t="s">
-        <v>427</v>
-      </c>
       <c r="I5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5713,15 +5708,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -5731,10 +5726,10 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>1</v>
@@ -5746,7 +5741,7 @@
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="30" t="s">
@@ -5761,7 +5756,7 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="30" t="s">
@@ -5776,10 +5771,10 @@
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>1</v>
@@ -5791,7 +5786,7 @@
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30" t="s">
@@ -5805,7 +5800,7 @@
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>1</v>
@@ -5817,7 +5812,7 @@
     </row>
     <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>1</v>
@@ -5829,7 +5824,7 @@
     </row>
     <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>1</v>
@@ -5844,7 +5839,7 @@
     </row>
     <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -5854,7 +5849,7 @@
     </row>
     <row r="20" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>1</v>
@@ -5867,7 +5862,7 @@
     </row>
     <row r="21" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>1</v>
@@ -5907,66 +5902,66 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" t="s">
         <v>393</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>394</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>395</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>396</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>397</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>398</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>399</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>400</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>401</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>402</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>403</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>404</v>
-      </c>
-      <c r="P1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>406</v>
-      </c>
-      <c r="R1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -5988,13 +5983,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -6018,108 +6013,108 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="R4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" t="s">
         <v>394</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>395</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>396</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>397</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>398</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>399</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>400</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>401</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>402</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>403</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>404</v>
       </c>
-      <c r="O5" t="s">
-        <v>405</v>
-      </c>
-      <c r="P5" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>407</v>
-      </c>
       <c r="R5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D6" s="23"/>
     </row>
@@ -6127,7 +6122,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -6135,7 +6130,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D8" s="23"/>
     </row>
@@ -6147,15 +6142,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>1</v>
@@ -6164,7 +6159,7 @@
     </row>
     <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C11"/>
       <c r="E11" s="5" t="s">
@@ -6174,10 +6169,10 @@
     </row>
     <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -6201,7 +6196,7 @@
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -6225,7 +6220,7 @@
     </row>
     <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -6270,7 +6265,7 @@
     </row>
     <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -6315,7 +6310,7 @@
     </row>
     <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -6343,7 +6338,7 @@
     </row>
     <row r="17" spans="2:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -6373,10 +6368,10 @@
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R18" t="s">
         <v>1</v>
@@ -6408,834 +6403,834 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>367</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" t="s">
         <v>382</v>
-      </c>
-      <c r="B9" t="s">
-        <v>385</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" t="s">
         <v>389</v>
-      </c>
-      <c r="B14" t="s">
-        <v>392</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E15" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G21" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F23" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G23" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B24" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G24" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B26" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G26" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F27" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G27" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F28" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H28" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F30" t="s">
         <v>422</v>
       </c>
-      <c r="F30" t="s">
-        <v>425</v>
-      </c>
       <c r="G30" s="23" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F31" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F32" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G32" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G33" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B34" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G34" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E35" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F35" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G35" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D308C14-7E31-ED45-922E-65F04EC1800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C5CC6-B780-954F-92D8-64DF6359637F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="505">
   <si>
     <t>Screening</t>
   </si>
@@ -267,9 +267,6 @@
     <t>studyRationale</t>
   </si>
   <si>
-    <t>SIMPLE</t>
-  </si>
-  <si>
     <t>briefTitle</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
   </si>
   <si>
     <t>protocolStatus</t>
-  </si>
-  <si>
-    <t>Somethign Clever</t>
   </si>
   <si>
     <t>draft</t>
@@ -914,9 +908,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>CROSS1</t>
   </si>
   <si>
     <t>objectiveLabel</t>
@@ -2157,7 +2148,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2173,10 +2164,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2188,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2235,9 +2226,7 @@
       <c r="A6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2248,7 +2237,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2257,7 +2246,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="9"/>
       <c r="E8" s="1"/>
@@ -2267,10 +2256,10 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2279,10 +2268,10 @@
     </row>
     <row r="10" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2291,7 +2280,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7"/>
       <c r="E11" s="1"/>
@@ -2301,11 +2290,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2313,7 +2300,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
@@ -2325,10 +2312,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2430,134 +2417,134 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -2586,32 +2573,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -2620,13 +2607,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -2634,18 +2621,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2654,13 +2641,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -2668,18 +2655,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2688,13 +2675,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2702,13 +2689,13 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -2717,13 +2704,13 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -2732,13 +2719,13 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -2747,13 +2734,13 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -2762,13 +2749,13 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -2777,13 +2764,13 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -2792,13 +2779,13 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -2806,18 +2793,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2826,13 +2813,13 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -2840,18 +2827,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -2859,18 +2846,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -2879,13 +2866,13 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -2894,13 +2881,13 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -2909,13 +2896,13 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2924,13 +2911,13 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -2939,13 +2926,13 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -2953,18 +2940,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -2973,13 +2960,13 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -2987,18 +2974,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -3007,13 +2994,13 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -3021,18 +3008,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -3041,13 +3028,13 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -3056,13 +3043,13 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -3071,13 +3058,13 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -3086,13 +3073,13 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -3101,13 +3088,13 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -3116,13 +3103,13 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -3131,13 +3118,13 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3189,61 +3176,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>304</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3251,58 +3238,58 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" t="s">
         <v>308</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>310</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>311</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="I2" t="s">
         <v>312</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>313</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>314</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>315</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>317</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>318</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>319</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>320</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>321</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="33" t="s">
         <v>322</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R2" t="s">
-        <v>324</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3310,58 +3297,58 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" t="s">
         <v>326</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" t="s">
         <v>327</v>
       </c>
-      <c r="D3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>328</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>329</v>
       </c>
-      <c r="I3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" t="s">
+        <v>317</v>
+      </c>
+      <c r="O3" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" t="s">
         <v>330</v>
       </c>
-      <c r="K3" t="s">
-        <v>331</v>
-      </c>
-      <c r="L3" t="s">
-        <v>332</v>
-      </c>
-      <c r="M3" t="s">
-        <v>319</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>320</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>321</v>
       </c>
-      <c r="P3" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>323</v>
-      </c>
-      <c r="R3" t="s">
-        <v>324</v>
-      </c>
       <c r="S3" s="33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3386,13 +3373,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>28</v>
@@ -3403,10 +3390,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
@@ -3417,10 +3404,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>30</v>
@@ -3452,25 +3439,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>32</v>
@@ -3478,10 +3465,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3495,24 +3482,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" t="s">
         <v>339</v>
-      </c>
-      <c r="B3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3550,10 +3537,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>35</v>
@@ -3565,13 +3552,13 @@
         <v>36</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>37</v>
@@ -3583,7 +3570,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>38</v>
@@ -3593,7 +3580,7 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>39</v>
@@ -3605,7 +3592,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>40</v>
@@ -3615,7 +3602,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>41</v>
@@ -3623,11 +3610,11 @@
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>40</v>
@@ -3637,7 +3624,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
@@ -3646,11 +3633,11 @@
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>40</v>
@@ -3660,7 +3647,7 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
@@ -3926,16 +3913,16 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
         <v>264</v>
       </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>266</v>
-      </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -3944,24 +3931,24 @@
         <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -3970,7 +3957,7 @@
         <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3996,87 +3983,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4108,144 +4095,144 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4275,101 +4262,101 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>240</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>240</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4421,39 +4408,39 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="D3" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
-      </c>
       <c r="E3" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4476,18 +4463,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4512,10 +4499,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -4523,10 +4510,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -4546,7 +4533,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -4557,7 +4544,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4568,7 +4555,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4579,7 +4566,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -4590,7 +4577,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -4598,10 +4585,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -4609,10 +4596,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -4620,19 +4607,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -4640,42 +4627,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4727,53 +4714,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>252</v>
-      </c>
       <c r="C2" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>253</v>
-      </c>
       <c r="C3" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4801,13 +4788,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4815,43 +4802,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4859,10 +4846,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4891,60 +4878,60 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -4952,13 +4939,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4968,139 +4955,139 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>15</v>
@@ -5110,46 +5097,46 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="L8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5160,15 +5147,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -5187,7 +5174,7 @@
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -5204,10 +5191,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -5218,10 +5205,10 @@
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>1</v>
@@ -5235,7 +5222,7 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -5244,7 +5231,7 @@
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
@@ -5277,10 +5264,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -5291,10 +5278,10 @@
     </row>
     <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -5302,7 +5289,7 @@
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -5323,7 +5310,7 @@
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -5359,10 +5346,10 @@
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1</v>
@@ -5373,7 +5360,7 @@
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -5385,10 +5372,10 @@
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>1</v>
@@ -5399,10 +5386,10 @@
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -5413,7 +5400,7 @@
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -5425,12 +5412,12 @@
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -5438,7 +5425,7 @@
     </row>
     <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -5449,7 +5436,7 @@
     </row>
     <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -5460,7 +5447,7 @@
     </row>
     <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -5477,7 +5464,7 @@
     </row>
     <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -5485,7 +5472,7 @@
     </row>
     <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -5493,7 +5480,7 @@
     </row>
     <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -5501,7 +5488,7 @@
     </row>
     <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>1</v>
@@ -5509,12 +5496,12 @@
     </row>
     <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
@@ -5522,7 +5509,7 @@
     </row>
     <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1</v>
@@ -5533,7 +5520,7 @@
     </row>
     <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
@@ -5568,39 +5555,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" t="s">
         <v>419</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>420</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>421</v>
-      </c>
-      <c r="G1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -5614,13 +5601,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -5636,68 +5623,68 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" t="s">
         <v>420</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>421</v>
       </c>
-      <c r="F5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" t="s">
-        <v>423</v>
-      </c>
-      <c r="H5" t="s">
-        <v>424</v>
-      </c>
       <c r="I5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5708,15 +5695,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -5726,10 +5713,10 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>1</v>
@@ -5741,7 +5728,7 @@
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="30" t="s">
@@ -5756,7 +5743,7 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="30" t="s">
@@ -5771,10 +5758,10 @@
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>1</v>
@@ -5786,7 +5773,7 @@
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30" t="s">
@@ -5800,7 +5787,7 @@
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>1</v>
@@ -5812,7 +5799,7 @@
     </row>
     <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>1</v>
@@ -5824,7 +5811,7 @@
     </row>
     <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>1</v>
@@ -5839,7 +5826,7 @@
     </row>
     <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -5849,7 +5836,7 @@
     </row>
     <row r="20" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>1</v>
@@ -5862,7 +5849,7 @@
     </row>
     <row r="21" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>1</v>
@@ -5902,66 +5889,66 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" t="s">
         <v>390</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>391</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>393</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>394</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>395</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>396</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>397</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>398</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>399</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>400</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>401</v>
-      </c>
-      <c r="P1" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>403</v>
-      </c>
-      <c r="R1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -5983,13 +5970,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -6013,108 +6000,108 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="R4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" t="s">
         <v>391</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>392</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>393</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>394</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>395</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>396</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>397</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>398</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>399</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>400</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>401</v>
       </c>
-      <c r="O5" t="s">
-        <v>402</v>
-      </c>
-      <c r="P5" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>404</v>
-      </c>
       <c r="R5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D6" s="23"/>
     </row>
@@ -6122,7 +6109,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -6130,7 +6117,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D8" s="23"/>
     </row>
@@ -6142,15 +6129,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>1</v>
@@ -6159,7 +6146,7 @@
     </row>
     <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11"/>
       <c r="E11" s="5" t="s">
@@ -6169,10 +6156,10 @@
     </row>
     <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -6196,7 +6183,7 @@
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -6220,7 +6207,7 @@
     </row>
     <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -6265,7 +6252,7 @@
     </row>
     <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -6310,7 +6297,7 @@
     </row>
     <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -6338,7 +6325,7 @@
     </row>
     <row r="17" spans="2:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -6368,10 +6355,10 @@
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R18" t="s">
         <v>1</v>
@@ -6403,834 +6390,834 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>364</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
         <v>379</v>
-      </c>
-      <c r="B9" t="s">
-        <v>382</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" t="s">
         <v>386</v>
-      </c>
-      <c r="B14" t="s">
-        <v>389</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E18" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F24" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G25" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F26" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G26" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H27" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B28" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G28" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E30" t="s">
+        <v>416</v>
+      </c>
+      <c r="F30" t="s">
         <v>419</v>
       </c>
-      <c r="F30" t="s">
-        <v>422</v>
-      </c>
       <c r="G30" s="23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H30" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E31" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F31" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B32" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E32" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F32" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G33" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B34" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F34" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G34" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E35" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F35" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G35" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H35" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C5CC6-B780-954F-92D8-64DF6359637F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8348D0B-A8F8-2E49-A128-CAEEC5C70EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1003,18 +1003,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1054,12 +1048,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1592,6 +1580,18 @@
   </si>
   <si>
     <t>A Study of Nasal Glucagon (LY900018) in Japanese Participants With Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -1811,10 +1811,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1841,9 +1841,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1881,7 +1881,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1987,7 +1987,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2129,7 +2129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2147,7 +2147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2179,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2259,7 +2259,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2426,125 +2426,125 @@
         <v>286</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>214</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>215</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>219</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>228</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>220</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>222</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>223</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>179</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>213</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>180</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>181</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>182</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>183</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>184</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>185</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>186</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>216</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>217</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>189</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>191</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>192</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>193</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>194</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>195</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>196</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>197</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>198</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>199</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>200</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>164</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>221</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>166</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>201</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>202</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>203</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>204</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>205</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>206</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>207</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>208</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>209</v>
@@ -3146,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4A8646-D207-4F4D-BE0D-39D6443857DD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3247,49 +3247,49 @@
         <v>307</v>
       </c>
       <c r="E2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" t="s">
         <v>309</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I2" t="s">
         <v>310</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>311</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>312</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>313</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>315</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>316</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>317</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>318</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>319</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="R2" t="s">
-        <v>321</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3297,58 +3297,58 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
         <v>307</v>
       </c>
       <c r="E3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" t="s">
+        <v>504</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3" t="s">
+        <v>323</v>
+      </c>
+      <c r="K3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L3" t="s">
         <v>325</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O3" t="s">
+        <v>316</v>
+      </c>
+      <c r="P3" t="s">
         <v>326</v>
       </c>
-      <c r="I3" t="s">
-        <v>312</v>
-      </c>
-      <c r="J3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" t="s">
-        <v>329</v>
-      </c>
-      <c r="M3" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" t="s">
-        <v>317</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>318</v>
       </c>
-      <c r="P3" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>319</v>
+      </c>
+      <c r="S3" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="R3" t="s">
-        <v>321</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3439,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>276</v>
@@ -3451,13 +3451,13 @@
         <v>286</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>32</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3482,24 +3482,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" t="s">
         <v>336</v>
-      </c>
-      <c r="B4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4523,32 +4523,32 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -4679,16 +4679,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4890,40 +4890,40 @@
         <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -4955,103 +4955,103 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5097,7 +5097,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>107</v>
@@ -5564,22 +5564,22 @@
         <v>276</v>
       </c>
       <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" t="s">
         <v>416</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>417</v>
-      </c>
-      <c r="F1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5623,68 +5623,68 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H5" t="s">
         <v>417</v>
       </c>
-      <c r="E5" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" t="s">
-        <v>419</v>
-      </c>
-      <c r="G5" t="s">
-        <v>420</v>
-      </c>
-      <c r="H5" t="s">
-        <v>421</v>
-      </c>
       <c r="I5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5898,49 +5898,49 @@
         <v>276</v>
       </c>
       <c r="D1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" t="s">
         <v>387</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>388</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>389</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>390</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>391</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>392</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>393</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>394</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>395</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>396</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
-      </c>
-      <c r="O1" t="s">
-        <v>398</v>
-      </c>
-      <c r="P1" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>400</v>
-      </c>
-      <c r="R1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -6000,108 +6000,108 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="R4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H5" t="s">
         <v>388</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>389</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>390</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>391</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>392</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>393</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>394</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>395</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>396</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>397</v>
       </c>
-      <c r="N5" t="s">
-        <v>398</v>
-      </c>
-      <c r="O5" t="s">
-        <v>399</v>
-      </c>
-      <c r="P5" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>401</v>
-      </c>
       <c r="R5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D6" s="23"/>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -6117,7 +6117,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D8" s="23"/>
     </row>
@@ -6402,229 +6402,229 @@
         <v>26</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>360</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
         <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" t="s">
         <v>348</v>
       </c>
-      <c r="F3" t="s">
-        <v>352</v>
-      </c>
       <c r="G3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" t="s">
         <v>377</v>
-      </c>
-      <c r="B10" t="s">
-        <v>381</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I10" t="s">
         <v>178</v>
@@ -6632,97 +6632,97 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G13" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I14" t="s">
         <v>177</v>
@@ -6730,494 +6730,494 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E17" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E19" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E21" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G21" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E24" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F24" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G24" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H24" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G25" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B26" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E26" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F26" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G26" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B27" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G27" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B28" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G28" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H28" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B30" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H30" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E31" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F32" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G32" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E33" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F33" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H34" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E35" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F35" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G35" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8348D0B-A8F8-2E49-A128-CAEEC5C70EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DE46F-2271-8747-AB54-8DEE33CCB5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -189,13 +189,7 @@
     <t>endpointLevel</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Primary Endpoint</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Secondary Endpoint</t>
@@ -1592,6 +1586,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -1811,10 +1811,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1841,9 +1841,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1881,7 +1881,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1987,7 +1987,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2129,7 +2129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2164,10 +2164,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2179,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="7"/>
       <c r="E6" s="1"/>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="9"/>
       <c r="E8" s="1"/>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="10" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7"/>
       <c r="E11" s="1"/>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="7"/>
       <c r="E12" s="1"/>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2417,134 +2417,134 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>480</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2573,32 +2573,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -2621,18 +2621,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -2655,18 +2655,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2675,13 +2675,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -2704,13 +2704,13 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -2734,13 +2734,13 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -2749,13 +2749,13 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -2764,13 +2764,13 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -2779,13 +2779,13 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -2793,18 +2793,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2813,13 +2813,13 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -2827,18 +2827,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -2846,18 +2846,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -2896,13 +2896,13 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -2926,13 +2926,13 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -2940,18 +2940,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -2960,13 +2960,13 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -2974,18 +2974,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -3008,18 +3008,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -3058,13 +3058,13 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -3088,13 +3088,13 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -3118,13 +3118,13 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3146,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4A8646-D207-4F4D-BE0D-39D6443857DD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
@@ -3176,179 +3176,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
         <v>305</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>307</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>501</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="I2" t="s">
         <v>308</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>309</v>
       </c>
-      <c r="H2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>310</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>312</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>313</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>314</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>315</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>316</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>317</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="R2" t="s">
-        <v>319</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" t="s">
+        <v>502</v>
+      </c>
+      <c r="I3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
         <v>321</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>322</v>
       </c>
-      <c r="D3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" t="s">
-        <v>502</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" t="s">
-        <v>504</v>
-      </c>
-      <c r="I3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>323</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N3" t="s">
+        <v>313</v>
+      </c>
+      <c r="O3" t="s">
+        <v>314</v>
+      </c>
+      <c r="P3" t="s">
         <v>324</v>
       </c>
-      <c r="L3" t="s">
-        <v>325</v>
-      </c>
-      <c r="M3" t="s">
-        <v>314</v>
-      </c>
-      <c r="N3" t="s">
-        <v>315</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>316</v>
       </c>
-      <c r="P3" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>317</v>
+      </c>
+      <c r="S3" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="R3" t="s">
-        <v>319</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3373,13 +3373,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>28</v>
@@ -3387,13 +3387,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>30</v>
@@ -3439,25 +3439,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>32</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3482,24 +3482,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" t="s">
         <v>333</v>
-      </c>
-      <c r="G3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
         <v>332</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>334</v>
-      </c>
-      <c r="G4" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3511,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3531,34 +3531,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>37</v>
@@ -3566,92 +3566,92 @@
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>503</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>504</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>504</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>504</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3884,80 +3884,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
         <v>262</v>
       </c>
-      <c r="C2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" t="s">
-        <v>264</v>
-      </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3983,87 +3983,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4092,147 +4092,147 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4259,104 +4259,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>238</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>238</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4408,39 +4408,39 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="D3" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>237</v>
-      </c>
       <c r="E3" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4463,18 +4463,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4499,10 +4499,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -4523,39 +4523,39 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4566,7 +4566,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -4577,7 +4577,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -4596,10 +4596,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -4607,19 +4607,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -4627,42 +4627,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4679,16 +4679,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4714,53 +4714,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>250</v>
-      </c>
       <c r="C2" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>251</v>
-      </c>
       <c r="C3" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4788,13 +4788,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4802,43 +4802,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4846,10 +4846,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4878,60 +4878,60 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -4939,13 +4939,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4955,139 +4955,139 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>15</v>
@@ -5097,46 +5097,46 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="L8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5147,15 +5147,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>1</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -5231,7 +5231,7 @@
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
@@ -5264,10 +5264,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -5278,10 +5278,10 @@
     </row>
     <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -5310,7 +5310,7 @@
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -5346,10 +5346,10 @@
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -5372,10 +5372,10 @@
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>1</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -5412,12 +5412,12 @@
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>1</v>
@@ -5496,12 +5496,12 @@
     </row>
     <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
@@ -5555,39 +5555,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>413</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>415</v>
-      </c>
-      <c r="H1" t="s">
-        <v>416</v>
-      </c>
-      <c r="I1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -5601,13 +5601,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -5623,68 +5623,68 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" t="s">
         <v>413</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>414</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>415</v>
       </c>
-      <c r="G5" t="s">
-        <v>416</v>
-      </c>
-      <c r="H5" t="s">
-        <v>417</v>
-      </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5695,15 +5695,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>1</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="30" t="s">
@@ -5743,7 +5743,7 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="30" t="s">
@@ -5758,10 +5758,10 @@
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>1</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30" t="s">
@@ -5787,7 +5787,7 @@
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>1</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>1</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>1</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="20" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>1</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="21" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>1</v>
@@ -5889,66 +5889,66 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>384</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>385</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>386</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>387</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>388</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>389</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>390</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>391</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>392</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>393</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>394</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>396</v>
-      </c>
-      <c r="R1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>
@@ -5970,13 +5970,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -6000,108 +6000,108 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" t="s">
         <v>384</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>385</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>386</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>387</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>388</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>389</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>390</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>391</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>392</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>393</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>394</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>395</v>
       </c>
-      <c r="P5" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>397</v>
-      </c>
       <c r="R5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D6" s="23"/>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -6117,7 +6117,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D8" s="23"/>
     </row>
@@ -6129,15 +6129,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>1</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11"/>
       <c r="E11" s="5" t="s">
@@ -6156,10 +6156,10 @@
     </row>
     <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="17" spans="2:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
         <v>1</v>
@@ -6390,834 +6390,834 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>358</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F31" t="s">
         <v>413</v>
       </c>
-      <c r="F31" t="s">
-        <v>415</v>
-      </c>
       <c r="G31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G33" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E34" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F34" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DE46F-2271-8747-AB54-8DEE33CCB5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0397DB5B-85EF-4E4C-A846-4B0453F65010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" firstSheet="1" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="506">
   <si>
     <t>Screening</t>
   </si>
@@ -1592,6 +1592,9 @@
   </si>
   <si>
     <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
   </si>
 </sst>
 </file>
@@ -1811,10 +1814,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3511,7 +3514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3866,23 +3869,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
@@ -3892,23 +3895,26 @@
       <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3918,23 +3924,26 @@
       <c r="C2" t="s">
         <v>264</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" t="s">
         <v>262</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>263</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3945,18 +3954,21 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4523,32 +4535,32 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -4679,16 +4691,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0397DB5B-85EF-4E4C-A846-4B0453F65010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3BE2B0-9575-7140-BE20-FF3607CCE799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" firstSheet="1" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="508">
   <si>
     <t>Screening</t>
   </si>
@@ -1595,6 +1595,12 @@
   </si>
   <si>
     <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
   </si>
 </sst>
 </file>
@@ -1814,10 +1820,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3869,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3883,9 +3889,10 @@
     <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
@@ -3913,8 +3920,11 @@
       <c r="I1" s="16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3942,8 +3952,11 @@
       <c r="I2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3970,6 +3983,9 @@
       </c>
       <c r="I3" t="s">
         <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4535,32 +4551,32 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -4691,16 +4707,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3BE2B0-9575-7140-BE20-FF3607CCE799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB1ADE-D401-AC40-B682-8C4B947929C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46440" yWindow="500" windowWidth="46260" windowHeight="26240" firstSheet="1" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="46260" windowHeight="26240" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
-    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="HypoInduction" sheetId="18" r:id="rId7"/>
-    <sheet name="TreatmentPhase" sheetId="17" r:id="rId8"/>
-    <sheet name="studyDesignTiming" sheetId="20" r:id="rId9"/>
-    <sheet name="studyDesignConditions" sheetId="21" r:id="rId10"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId11"/>
-    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId12"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId13"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId14"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId15"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId16"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId17"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId18"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId19"/>
-    <sheet name="configuration" sheetId="10" r:id="rId20"/>
+    <sheet name="studyOrganizations" sheetId="3" r:id="rId2"/>
+    <sheet name="studyIdentifiers" sheetId="22" r:id="rId3"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId5"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId6"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId7"/>
+    <sheet name="HypoInduction" sheetId="18" r:id="rId8"/>
+    <sheet name="TreatmentPhase" sheetId="17" r:id="rId9"/>
+    <sheet name="studyDesignTiming" sheetId="20" r:id="rId10"/>
+    <sheet name="studyDesignConditions" sheetId="21" r:id="rId11"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId12"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId13"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId14"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId15"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId16"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId17"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId18"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId19"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId20"/>
+    <sheet name="configuration" sheetId="10" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="510">
   <si>
     <t>Screening</t>
   </si>
@@ -1601,6 +1602,12 @@
   </si>
   <si>
     <t>ICE Text</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>organization</t>
   </si>
 </sst>
 </file>
@@ -1820,10 +1827,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2407,6 +2414,862 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22D6280-6618-9149-96EE-53C1C0C7E8E9}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="34" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="9" width="13.5" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" t="s">
+        <v>360</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H9" t="s">
+        <v>360</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" t="s">
+        <v>440</v>
+      </c>
+      <c r="H10" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" t="s">
+        <v>360</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" t="s">
+        <v>437</v>
+      </c>
+      <c r="H15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E16" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" t="s">
+        <v>437</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" t="s">
+        <v>382</v>
+      </c>
+      <c r="G17" t="s">
+        <v>396</v>
+      </c>
+      <c r="H17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" t="s">
+        <v>382</v>
+      </c>
+      <c r="G18" t="s">
+        <v>397</v>
+      </c>
+      <c r="H18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" t="s">
+        <v>382</v>
+      </c>
+      <c r="G19" t="s">
+        <v>398</v>
+      </c>
+      <c r="H19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>364</v>
+      </c>
+      <c r="E20" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" t="s">
+        <v>382</v>
+      </c>
+      <c r="G20" t="s">
+        <v>399</v>
+      </c>
+      <c r="H20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" t="s">
+        <v>382</v>
+      </c>
+      <c r="G21" t="s">
+        <v>400</v>
+      </c>
+      <c r="H21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" t="s">
+        <v>401</v>
+      </c>
+      <c r="H22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" t="s">
+        <v>389</v>
+      </c>
+      <c r="F23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G23" t="s">
+        <v>402</v>
+      </c>
+      <c r="H23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>425</v>
+      </c>
+      <c r="B24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" t="s">
+        <v>390</v>
+      </c>
+      <c r="F24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" t="s">
+        <v>403</v>
+      </c>
+      <c r="H24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" t="s">
+        <v>404</v>
+      </c>
+      <c r="H25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F26" t="s">
+        <v>382</v>
+      </c>
+      <c r="G26" t="s">
+        <v>405</v>
+      </c>
+      <c r="H26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G27" t="s">
+        <v>406</v>
+      </c>
+      <c r="H27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" t="s">
+        <v>394</v>
+      </c>
+      <c r="F28" t="s">
+        <v>382</v>
+      </c>
+      <c r="G28" t="s">
+        <v>408</v>
+      </c>
+      <c r="H28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29" t="s">
+        <v>395</v>
+      </c>
+      <c r="F29" t="s">
+        <v>382</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="H29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F30" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="H30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>432</v>
+      </c>
+      <c r="B31" t="s">
+        <v>401</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>359</v>
+      </c>
+      <c r="E31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F31" t="s">
+        <v>413</v>
+      </c>
+      <c r="G31" t="s">
+        <v>442</v>
+      </c>
+      <c r="H31" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>359</v>
+      </c>
+      <c r="E32" t="s">
+        <v>412</v>
+      </c>
+      <c r="F32" t="s">
+        <v>413</v>
+      </c>
+      <c r="G32" t="s">
+        <v>441</v>
+      </c>
+      <c r="H32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" t="s">
+        <v>413</v>
+      </c>
+      <c r="F33" t="s">
+        <v>413</v>
+      </c>
+      <c r="G33" t="s">
+        <v>437</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" t="s">
+        <v>414</v>
+      </c>
+      <c r="F34" t="s">
+        <v>413</v>
+      </c>
+      <c r="G34" t="s">
+        <v>443</v>
+      </c>
+      <c r="H34" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" t="s">
+        <v>415</v>
+      </c>
+      <c r="F35" t="s">
+        <v>413</v>
+      </c>
+      <c r="G35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9BABDC-5A51-9840-A291-8D79199BBE68}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2562,7 +3425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81EA128-B7FE-1C45-9311-422BAF2D7A28}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -3151,7 +4014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4A8646-D207-4F4D-BE0D-39D6443857DD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3365,7 +4228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3427,7 +4290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3516,7 +4379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -3873,11 +4736,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
@@ -3993,7 +4856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -4100,7 +4963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -4269,7 +5132,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="78" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4394,89 +5338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="78" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4511,6 +5373,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0757B52E-C5EA-5B47-94DF-3D7401A2D8B5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -4551,32 +5456,32 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -4707,23 +5612,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4799,7 +5704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4885,7 +5790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:P37"/>
   <sheetViews>
@@ -5561,7 +6466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DCBC64-AD78-403D-83E2-03FD5CA19DE2}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -5895,7 +6800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3AD796-AEF0-9C47-A577-B3B29F4834C6}">
   <dimension ref="A1:R18"/>
   <sheetViews>
@@ -6396,860 +7301,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22D6280-6618-9149-96EE-53C1C0C7E8E9}">
-  <dimension ref="A1:I35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="34" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5" style="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G2" t="s">
-        <v>437</v>
-      </c>
-      <c r="H2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G3" t="s">
-        <v>438</v>
-      </c>
-      <c r="H3" t="s">
-        <v>360</v>
-      </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" t="s">
-        <v>360</v>
-      </c>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" t="s">
-        <v>344</v>
-      </c>
-      <c r="F5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" t="s">
-        <v>437</v>
-      </c>
-      <c r="H5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" t="s">
-        <v>359</v>
-      </c>
-      <c r="E6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" t="s">
-        <v>437</v>
-      </c>
-      <c r="H6" t="s">
-        <v>360</v>
-      </c>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F8" t="s">
-        <v>346</v>
-      </c>
-      <c r="G8" t="s">
-        <v>437</v>
-      </c>
-      <c r="H8" t="s">
-        <v>360</v>
-      </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" t="s">
-        <v>439</v>
-      </c>
-      <c r="H9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
-        <v>364</v>
-      </c>
-      <c r="E10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G10" t="s">
-        <v>440</v>
-      </c>
-      <c r="H10" t="s">
-        <v>360</v>
-      </c>
-      <c r="I10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" t="s">
-        <v>437</v>
-      </c>
-      <c r="H11" t="s">
-        <v>360</v>
-      </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
-        <v>364</v>
-      </c>
-      <c r="E12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" t="s">
-        <v>349</v>
-      </c>
-      <c r="G12" t="s">
-        <v>363</v>
-      </c>
-      <c r="H12" t="s">
-        <v>360</v>
-      </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>376</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G13" t="s">
-        <v>437</v>
-      </c>
-      <c r="H13" t="s">
-        <v>360</v>
-      </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" t="s">
-        <v>380</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
-        <v>364</v>
-      </c>
-      <c r="E14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F14" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" t="s">
-        <v>380</v>
-      </c>
-      <c r="H14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
-        <v>359</v>
-      </c>
-      <c r="E15" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" t="s">
-        <v>382</v>
-      </c>
-      <c r="G15" t="s">
-        <v>437</v>
-      </c>
-      <c r="H15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>379</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E16" t="s">
-        <v>382</v>
-      </c>
-      <c r="F16" t="s">
-        <v>382</v>
-      </c>
-      <c r="G16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B17" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
-        <v>364</v>
-      </c>
-      <c r="E17" t="s">
-        <v>383</v>
-      </c>
-      <c r="F17" t="s">
-        <v>382</v>
-      </c>
-      <c r="G17" t="s">
-        <v>396</v>
-      </c>
-      <c r="H17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B18" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
-        <v>364</v>
-      </c>
-      <c r="E18" t="s">
-        <v>384</v>
-      </c>
-      <c r="F18" t="s">
-        <v>382</v>
-      </c>
-      <c r="G18" t="s">
-        <v>397</v>
-      </c>
-      <c r="H18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>420</v>
-      </c>
-      <c r="B19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
-        <v>364</v>
-      </c>
-      <c r="E19" t="s">
-        <v>385</v>
-      </c>
-      <c r="F19" t="s">
-        <v>382</v>
-      </c>
-      <c r="G19" t="s">
-        <v>398</v>
-      </c>
-      <c r="H19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>421</v>
-      </c>
-      <c r="B20" t="s">
-        <v>399</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
-        <v>364</v>
-      </c>
-      <c r="E20" t="s">
-        <v>386</v>
-      </c>
-      <c r="F20" t="s">
-        <v>382</v>
-      </c>
-      <c r="G20" t="s">
-        <v>399</v>
-      </c>
-      <c r="H20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>422</v>
-      </c>
-      <c r="B21" t="s">
-        <v>400</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E21" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" t="s">
-        <v>382</v>
-      </c>
-      <c r="G21" t="s">
-        <v>400</v>
-      </c>
-      <c r="H21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>423</v>
-      </c>
-      <c r="B22" t="s">
-        <v>401</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
-        <v>364</v>
-      </c>
-      <c r="E22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F22" t="s">
-        <v>382</v>
-      </c>
-      <c r="G22" t="s">
-        <v>401</v>
-      </c>
-      <c r="H22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>424</v>
-      </c>
-      <c r="B23" t="s">
-        <v>402</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
-        <v>364</v>
-      </c>
-      <c r="E23" t="s">
-        <v>389</v>
-      </c>
-      <c r="F23" t="s">
-        <v>382</v>
-      </c>
-      <c r="G23" t="s">
-        <v>402</v>
-      </c>
-      <c r="H23" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>425</v>
-      </c>
-      <c r="B24" t="s">
-        <v>403</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
-        <v>364</v>
-      </c>
-      <c r="E24" t="s">
-        <v>390</v>
-      </c>
-      <c r="F24" t="s">
-        <v>382</v>
-      </c>
-      <c r="G24" t="s">
-        <v>403</v>
-      </c>
-      <c r="H24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>426</v>
-      </c>
-      <c r="B25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" t="s">
-        <v>391</v>
-      </c>
-      <c r="F25" t="s">
-        <v>382</v>
-      </c>
-      <c r="G25" t="s">
-        <v>404</v>
-      </c>
-      <c r="H25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>427</v>
-      </c>
-      <c r="B26" t="s">
-        <v>405</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E26" t="s">
-        <v>392</v>
-      </c>
-      <c r="F26" t="s">
-        <v>382</v>
-      </c>
-      <c r="G26" t="s">
-        <v>405</v>
-      </c>
-      <c r="H26" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>428</v>
-      </c>
-      <c r="B27" t="s">
-        <v>406</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
-        <v>364</v>
-      </c>
-      <c r="E27" t="s">
-        <v>393</v>
-      </c>
-      <c r="F27" t="s">
-        <v>382</v>
-      </c>
-      <c r="G27" t="s">
-        <v>406</v>
-      </c>
-      <c r="H27" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>429</v>
-      </c>
-      <c r="B28" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>364</v>
-      </c>
-      <c r="E28" t="s">
-        <v>394</v>
-      </c>
-      <c r="F28" t="s">
-        <v>382</v>
-      </c>
-      <c r="G28" t="s">
-        <v>408</v>
-      </c>
-      <c r="H28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>430</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E29" t="s">
-        <v>395</v>
-      </c>
-      <c r="F29" t="s">
-        <v>382</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="H29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>431</v>
-      </c>
-      <c r="B30" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
-        <v>359</v>
-      </c>
-      <c r="E30" t="s">
-        <v>410</v>
-      </c>
-      <c r="F30" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="H30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>432</v>
-      </c>
-      <c r="B31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
-        <v>359</v>
-      </c>
-      <c r="E31" t="s">
-        <v>411</v>
-      </c>
-      <c r="F31" t="s">
-        <v>413</v>
-      </c>
-      <c r="G31" t="s">
-        <v>442</v>
-      </c>
-      <c r="H31" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>433</v>
-      </c>
-      <c r="B32" t="s">
-        <v>417</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>359</v>
-      </c>
-      <c r="E32" t="s">
-        <v>412</v>
-      </c>
-      <c r="F32" t="s">
-        <v>413</v>
-      </c>
-      <c r="G32" t="s">
-        <v>441</v>
-      </c>
-      <c r="H32" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>434</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33" t="s">
-        <v>362</v>
-      </c>
-      <c r="E33" t="s">
-        <v>413</v>
-      </c>
-      <c r="F33" t="s">
-        <v>413</v>
-      </c>
-      <c r="G33" t="s">
-        <v>437</v>
-      </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>435</v>
-      </c>
-      <c r="B34" t="s">
-        <v>405</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
-        <v>364</v>
-      </c>
-      <c r="E34" t="s">
-        <v>414</v>
-      </c>
-      <c r="F34" t="s">
-        <v>413</v>
-      </c>
-      <c r="G34" t="s">
-        <v>443</v>
-      </c>
-      <c r="H34" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>436</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35" t="s">
-        <v>364</v>
-      </c>
-      <c r="E35" t="s">
-        <v>415</v>
-      </c>
-      <c r="F35" t="s">
-        <v>413</v>
-      </c>
-      <c r="G35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB1ADE-D401-AC40-B682-8C4B947929C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0541DB-B58A-3642-BF55-61B547D14A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="46260" windowHeight="26240" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51400" yWindow="500" windowWidth="46260" windowHeight="26240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="511">
   <si>
     <t>Screening</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>interventionModel</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>DUNS</t>
@@ -1608,6 +1605,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>spare</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2167,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2180,10 +2183,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2195,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2219,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2231,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2240,7 +2243,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7"/>
       <c r="E6" s="1"/>
@@ -2250,10 +2253,10 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="9"/>
       <c r="E8" s="1"/>
@@ -2272,10 +2275,10 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2284,10 +2287,10 @@
     </row>
     <row r="10" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2296,7 +2299,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7"/>
       <c r="E11" s="1"/>
@@ -2306,7 +2309,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="7"/>
       <c r="E12" s="1"/>
@@ -2316,7 +2319,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
@@ -2328,10 +2331,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2433,834 +2436,834 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" t="s">
         <v>359</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G2" t="s">
-        <v>437</v>
-      </c>
-      <c r="H2" t="s">
-        <v>360</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" t="s">
         <v>359</v>
-      </c>
-      <c r="E3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G3" t="s">
-        <v>438</v>
-      </c>
-      <c r="H3" t="s">
-        <v>360</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" t="s">
         <v>359</v>
-      </c>
-      <c r="E4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" t="s">
-        <v>360</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" t="s">
         <v>359</v>
-      </c>
-      <c r="E5" t="s">
-        <v>344</v>
-      </c>
-      <c r="F5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" t="s">
-        <v>437</v>
-      </c>
-      <c r="H5" t="s">
-        <v>360</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" t="s">
         <v>359</v>
-      </c>
-      <c r="E6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" t="s">
-        <v>437</v>
-      </c>
-      <c r="H6" t="s">
-        <v>360</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" t="s">
         <v>359</v>
-      </c>
-      <c r="E11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" t="s">
-        <v>437</v>
-      </c>
-      <c r="H11" t="s">
-        <v>360</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F15" t="s">
+        <v>381</v>
+      </c>
+      <c r="G15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H15" t="s">
         <v>359</v>
-      </c>
-      <c r="E15" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" t="s">
-        <v>382</v>
-      </c>
-      <c r="G15" t="s">
-        <v>437</v>
-      </c>
-      <c r="H15" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="H30" t="s">
         <v>359</v>
-      </c>
-      <c r="E30" t="s">
-        <v>410</v>
-      </c>
-      <c r="F30" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="H30" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" t="s">
+        <v>410</v>
+      </c>
+      <c r="F31" t="s">
+        <v>412</v>
+      </c>
+      <c r="G31" t="s">
+        <v>441</v>
+      </c>
+      <c r="H31" t="s">
         <v>359</v>
-      </c>
-      <c r="E31" t="s">
-        <v>411</v>
-      </c>
-      <c r="F31" t="s">
-        <v>413</v>
-      </c>
-      <c r="G31" t="s">
-        <v>442</v>
-      </c>
-      <c r="H31" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" t="s">
+        <v>411</v>
+      </c>
+      <c r="F32" t="s">
+        <v>412</v>
+      </c>
+      <c r="G32" t="s">
+        <v>440</v>
+      </c>
+      <c r="H32" t="s">
         <v>359</v>
-      </c>
-      <c r="E32" t="s">
-        <v>412</v>
-      </c>
-      <c r="F32" t="s">
-        <v>413</v>
-      </c>
-      <c r="G32" t="s">
-        <v>441</v>
-      </c>
-      <c r="H32" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3289,134 +3292,134 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>479</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -3445,32 +3448,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>223</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -3479,13 +3482,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -3493,18 +3496,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -3513,13 +3516,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -3527,18 +3530,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -3547,13 +3550,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -3561,13 +3564,13 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -3576,13 +3579,13 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -3591,13 +3594,13 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -3606,13 +3609,13 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -3621,13 +3624,13 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -3636,13 +3639,13 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -3651,13 +3654,13 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -3665,18 +3668,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -3685,13 +3688,13 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -3699,18 +3702,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -3718,18 +3721,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -3738,13 +3741,13 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -3753,13 +3756,13 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -3768,13 +3771,13 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -3783,13 +3786,13 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -3798,13 +3801,13 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -3812,18 +3815,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -3832,13 +3835,13 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -3846,18 +3849,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -3866,13 +3869,13 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -3880,18 +3883,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -3900,13 +3903,13 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -3915,13 +3918,13 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -3930,13 +3933,13 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -3945,13 +3948,13 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -3960,13 +3963,13 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -3975,13 +3978,13 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -3990,13 +3993,13 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -4048,179 +4051,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
         <v>303</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>304</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="E2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" t="s">
         <v>306</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I2" t="s">
         <v>307</v>
       </c>
-      <c r="H2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>309</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>310</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>311</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>312</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>313</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>314</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>315</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>316</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
         <v>319</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" t="s">
+        <v>501</v>
+      </c>
+      <c r="I3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" t="s">
         <v>320</v>
       </c>
-      <c r="D3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="G3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H3" t="s">
-        <v>502</v>
-      </c>
-      <c r="I3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>321</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>322</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N3" t="s">
+        <v>312</v>
+      </c>
+      <c r="O3" t="s">
+        <v>313</v>
+      </c>
+      <c r="P3" t="s">
         <v>323</v>
       </c>
-      <c r="M3" t="s">
-        <v>312</v>
-      </c>
-      <c r="N3" t="s">
-        <v>313</v>
-      </c>
-      <c r="O3" t="s">
-        <v>314</v>
-      </c>
-      <c r="P3" t="s">
-        <v>324</v>
-      </c>
       <c r="Q3" t="s">
+        <v>315</v>
+      </c>
+      <c r="R3" t="s">
         <v>316</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4245,44 +4248,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
         <v>285</v>
       </c>
-      <c r="C2" t="s">
-        <v>286</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" t="s">
         <v>287</v>
       </c>
-      <c r="C3" t="s">
-        <v>288</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4311,36 +4314,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>327</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" t="s">
-        <v>329</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4349,29 +4352,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
         <v>330</v>
       </c>
-      <c r="B3" t="s">
-        <v>331</v>
-      </c>
       <c r="G3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4403,127 +4406,127 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -4757,98 +4760,98 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>505</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>260</v>
       </c>
-      <c r="C2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>261</v>
-      </c>
       <c r="J2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>81</v>
-      </c>
       <c r="J3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -4874,87 +4877,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4983,147 +4986,147 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5159,53 +5162,53 @@
         <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" t="s">
         <v>234</v>
       </c>
-      <c r="E3" t="s">
-        <v>235</v>
-      </c>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5231,104 +5234,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="E2" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>239</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5353,18 +5356,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +5379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0757B52E-C5EA-5B47-94DF-3D7401A2D8B5}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5391,23 +5394,23 @@
         <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5417,10 +5420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5432,10 +5435,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -5443,10 +5446,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -5466,7 +5469,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -5477,7 +5480,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -5488,7 +5491,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -5496,10 +5499,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>509</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -5510,7 +5513,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -5518,10 +5521,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -5529,99 +5532,133 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5647,53 +5684,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5721,13 +5758,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5735,43 +5772,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5779,10 +5816,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5811,216 +5848,216 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>15</v>
@@ -6030,46 +6067,46 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6080,15 +6117,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -6107,7 +6144,7 @@
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -6124,10 +6161,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -6138,10 +6175,10 @@
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>1</v>
@@ -6155,7 +6192,7 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -6164,7 +6201,7 @@
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
@@ -6197,10 +6234,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -6211,10 +6248,10 @@
     </row>
     <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -6222,7 +6259,7 @@
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -6243,7 +6280,7 @@
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -6279,10 +6316,10 @@
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1</v>
@@ -6293,7 +6330,7 @@
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -6305,10 +6342,10 @@
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>1</v>
@@ -6319,10 +6356,10 @@
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -6333,7 +6370,7 @@
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -6345,12 +6382,12 @@
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -6358,7 +6395,7 @@
     </row>
     <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -6369,7 +6406,7 @@
     </row>
     <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -6380,7 +6417,7 @@
     </row>
     <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -6397,7 +6434,7 @@
     </row>
     <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -6405,7 +6442,7 @@
     </row>
     <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -6413,7 +6450,7 @@
     </row>
     <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -6421,7 +6458,7 @@
     </row>
     <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>1</v>
@@ -6429,12 +6466,12 @@
     </row>
     <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
@@ -6442,7 +6479,7 @@
     </row>
     <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1</v>
@@ -6453,7 +6490,7 @@
     </row>
     <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
@@ -6488,42 +6525,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" t="s">
         <v>410</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>411</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>412</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>413</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>414</v>
-      </c>
-      <c r="I1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -6534,13 +6571,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -6553,71 +6590,71 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" t="s">
+        <v>413</v>
+      </c>
+      <c r="H5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I5" t="s">
         <v>337</v>
-      </c>
-      <c r="D5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E5" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G5" t="s">
-        <v>414</v>
-      </c>
-      <c r="H5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6628,15 +6665,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -6646,10 +6683,10 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>1</v>
@@ -6661,7 +6698,7 @@
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="30" t="s">
@@ -6676,7 +6713,7 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="30" t="s">
@@ -6691,10 +6728,10 @@
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>1</v>
@@ -6706,7 +6743,7 @@
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30" t="s">
@@ -6720,7 +6757,7 @@
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>1</v>
@@ -6732,7 +6769,7 @@
     </row>
     <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>1</v>
@@ -6744,7 +6781,7 @@
     </row>
     <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>1</v>
@@ -6759,7 +6796,7 @@
     </row>
     <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -6769,7 +6806,7 @@
     </row>
     <row r="20" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>1</v>
@@ -6782,7 +6819,7 @@
     </row>
     <row r="21" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>1</v>
@@ -6822,69 +6859,69 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1" t="s">
         <v>381</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>382</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>383</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>384</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>385</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>386</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>387</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>388</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>389</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>390</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>391</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>392</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>393</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>394</v>
-      </c>
-      <c r="R1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -6903,13 +6940,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -6930,111 +6967,111 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" t="s">
+        <v>386</v>
+      </c>
+      <c r="J5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L5" t="s">
+        <v>389</v>
+      </c>
+      <c r="M5" t="s">
+        <v>390</v>
+      </c>
+      <c r="N5" t="s">
+        <v>391</v>
+      </c>
+      <c r="O5" t="s">
+        <v>392</v>
+      </c>
+      <c r="P5" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>394</v>
+      </c>
+      <c r="R5" t="s">
         <v>337</v>
-      </c>
-      <c r="D5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G5" t="s">
-        <v>385</v>
-      </c>
-      <c r="H5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" t="s">
-        <v>387</v>
-      </c>
-      <c r="J5" t="s">
-        <v>388</v>
-      </c>
-      <c r="K5" t="s">
-        <v>389</v>
-      </c>
-      <c r="L5" t="s">
-        <v>390</v>
-      </c>
-      <c r="M5" t="s">
-        <v>391</v>
-      </c>
-      <c r="N5" t="s">
-        <v>392</v>
-      </c>
-      <c r="O5" t="s">
-        <v>393</v>
-      </c>
-      <c r="P5" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>395</v>
-      </c>
-      <c r="R5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D6" s="23"/>
     </row>
@@ -7042,7 +7079,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -7050,7 +7087,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D8" s="23"/>
     </row>
@@ -7062,15 +7099,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>1</v>
@@ -7079,7 +7116,7 @@
     </row>
     <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11"/>
       <c r="E11" s="5" t="s">
@@ -7089,10 +7126,10 @@
     </row>
     <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -7116,7 +7153,7 @@
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -7140,7 +7177,7 @@
     </row>
     <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -7185,7 +7222,7 @@
     </row>
     <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -7230,7 +7267,7 @@
     </row>
     <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -7258,7 +7295,7 @@
     </row>
     <row r="17" spans="2:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -7288,10 +7325,10 @@
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R18" t="s">
         <v>1</v>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0541DB-B58A-3642-BF55-61B547D14A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A749F-C442-4149-852F-028DA21760B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51400" yWindow="500" windowWidth="46260" windowHeight="26240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="6" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1586,12 +1586,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>populationSubset</t>
   </si>
   <si>
@@ -1611,6 +1605,12 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -4386,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4448,7 +4448,7 @@
         <v>280</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>48</v>
@@ -4470,7 +4470,7 @@
         <v>251</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>49</v>
@@ -4492,7 +4492,7 @@
         <v>254</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>50</v>
@@ -4515,7 +4515,7 @@
         <v>257</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>51</v>
@@ -4769,7 +4769,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>53</v>
@@ -4787,7 +4787,7 @@
         <v>54</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4819,7 +4819,7 @@
         <v>260</v>
       </c>
       <c r="J2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4851,7 +4851,7 @@
         <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5179,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>228</v>
@@ -5394,7 +5394,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5402,7 +5402,7 @@
         <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5422,7 +5422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>72</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -5646,6 +5646,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -5654,11 +5659,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tests/integration_test_files/complex_1.xlsx
+++ b/tests/integration_test_files/complex_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A749F-C442-4149-852F-028DA21760B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23121EB8-72B5-8442-8E30-AF2A4AAC43B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="6" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
     <t>mainTimeline</t>
   </si>
   <si>
@@ -779,9 +776,6 @@
     <t>ClinicalTrials.gov</t>
   </si>
   <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>Day -1 of treatment period</t>
   </si>
   <si>
@@ -1611,6 +1605,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2183,10 +2183,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2198,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2256,7 +2256,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2278,7 +2278,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2290,7 +2290,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2436,834 +2436,834 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>355</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G28" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B31" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E31" t="s">
+        <v>408</v>
+      </c>
+      <c r="F31" t="s">
         <v>410</v>
       </c>
-      <c r="F31" t="s">
-        <v>412</v>
-      </c>
       <c r="G31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G34" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3292,134 +3292,134 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3448,32 +3448,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -3482,13 +3482,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -3496,18 +3496,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -3516,13 +3516,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -3530,18 +3530,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -3550,13 +3550,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -3564,13 +3564,13 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -3594,13 +3594,13 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -3609,13 +3609,13 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -3624,13 +3624,13 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -3639,13 +3639,13 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -3668,18 +3668,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -3688,13 +3688,13 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -3702,18 +3702,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -3721,18 +3721,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -3741,13 +3741,13 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -3756,13 +3756,13 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -3771,13 +3771,13 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -3786,13 +3786,13 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -3801,13 +3801,13 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -3815,18 +3815,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -3835,13 +3835,13 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -3849,18 +3849,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -3869,13 +3869,13 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -3883,18 +3883,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -3903,13 +3903,13 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -3918,13 +3918,13 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -3933,13 +3933,13 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -3948,13 +3948,13 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -3963,13 +3963,13 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -3978,13 +3978,13 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -3993,13 +3993,13 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -4051,61 +4051,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4113,58 +4113,58 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
         <v>302</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>304</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>498</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="I2" t="s">
         <v>305</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>306</v>
       </c>
-      <c r="H2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>307</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>309</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>310</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>311</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>312</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>313</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>314</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="R2" t="s">
-        <v>316</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4172,58 +4172,58 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" t="s">
+        <v>499</v>
+      </c>
+      <c r="I3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" t="s">
         <v>318</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>319</v>
       </c>
-      <c r="D3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" t="s">
-        <v>501</v>
-      </c>
-      <c r="I3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>320</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O3" t="s">
+        <v>311</v>
+      </c>
+      <c r="P3" t="s">
         <v>321</v>
       </c>
-      <c r="L3" t="s">
-        <v>322</v>
-      </c>
-      <c r="M3" t="s">
-        <v>311</v>
-      </c>
-      <c r="N3" t="s">
-        <v>312</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>313</v>
       </c>
-      <c r="P3" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>314</v>
+      </c>
+      <c r="S3" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="R3" t="s">
-        <v>316</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4248,13 +4248,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>27</v>
@@ -4265,10 +4265,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>28</v>
@@ -4279,10 +4279,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -4314,25 +4314,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>31</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4357,24 +4357,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" t="s">
         <v>330</v>
-      </c>
-      <c r="G3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>331</v>
-      </c>
-      <c r="G4" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +4386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4412,10 +4412,10 @@
         <v>33</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>34</v>
@@ -4427,13 +4427,13 @@
         <v>35</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>36</v>
@@ -4445,17 +4445,17 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>37</v>
@@ -4467,17 +4467,17 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>38</v>
@@ -4485,21 +4485,21 @@
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
@@ -4508,21 +4508,21 @@
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
@@ -4769,7 +4769,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>53</v>
@@ -4787,7 +4787,7 @@
         <v>54</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4795,19 +4795,19 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" t="s">
         <v>259</v>
       </c>
-      <c r="C2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>261</v>
-      </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -4816,10 +4816,10 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4833,7 +4833,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
         <v>78</v>
@@ -4851,7 +4851,7 @@
         <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4877,87 +4877,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4989,144 +4989,144 @@
         <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5139,8 +5139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5162,7 +5162,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
@@ -5176,39 +5176,39 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>233</v>
-      </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>510</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5237,101 +5237,101 @@
         <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="D1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E2" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5394,23 +5394,23 @@
         <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5435,10 +5435,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -5469,7 +5469,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>72</v>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -5574,19 +5574,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>15</v>
@@ -5594,42 +5594,42 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5646,11 +5646,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -5659,6 +5654,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5684,53 +5684,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>247</v>
-      </c>
       <c r="C2" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>248</v>
-      </c>
       <c r="C3" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5758,13 +5758,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5772,43 +5772,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5816,10 +5816,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5848,60 +5848,60 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>26</v>
@@ -5909,13 +5909,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -5925,139 +5925,139 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>15</v>
@@ -6067,46 +6067,46 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6117,15 +6117,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -6175,10 +6175,10 @@
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>1</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -6201,7 +6201,7 @@
     </row>
     <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
@@ -6234,10 +6234,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="17" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="18" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18"/>
       <c r="G18" s="1" t="s">
@@ -6280,7 +6280,7 @@
     </row>
     <row r="19" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
@@ -6316,10 +6316,10 @@
     </row>
     <row r="20" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="21" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21"/>
       <c r="H21" s="1" t="s">
@@ -6342,10 +6342,10 @@
     </row>
     <row r="22" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>1</v>
@@ -6356,10 +6356,10 @@
     </row>
     <row r="23" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="24" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
@@ -6382,12 +6382,12 @@
     </row>
     <row r="25" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="27" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="28" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="31" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="32" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="33" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>1</v>
@@ -6466,12 +6466,12 @@
     </row>
     <row r="34" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="36" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="37" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
@@ -6525,39 +6525,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" t="s">
         <v>409</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>410</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>411</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>412</v>
-      </c>
-      <c r="H1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>26</v>
@@ -6571,13 +6571,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -6593,68 +6593,68 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" t="s">
         <v>410</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>411</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>412</v>
       </c>
-      <c r="G5" t="s">
-        <v>413</v>
-      </c>
-      <c r="H5" t="s">
-        <v>414</v>
-      </c>
       <c r="I5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6665,15 +6665,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>1</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="30" t="s">
@@ -6713,7 +6713,7 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="30" t="s">
@@ -6728,10 +6728,10 @@
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>1</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30" t="s">
@@ -6757,7 +6757,7 @@
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>1</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>1</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>1</v>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="20" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>1</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="21" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>1</v>
@@ -6859,66 +6859,66 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" t="s">
         <v>380</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>381</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>382</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>383</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>384</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>385</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>386</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>387</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>388</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>389</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>390</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>391</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>392</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>393</v>
-      </c>
-      <c r="R1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>26</v>
@@ -6940,13 +6940,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -6970,108 +6970,108 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="R4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" t="s">
         <v>381</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>382</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>383</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>384</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>385</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>386</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>387</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>388</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>389</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>390</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>391</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>392</v>
       </c>
-      <c r="P5" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>394</v>
-      </c>
       <c r="R5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D6" s="23"/>
     </row>
@@ -7079,7 +7079,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -7087,7 +7087,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D8" s="23"/>
     </row>
@@ -7099,15 +7099,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>1</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11"/>
       <c r="E11" s="5" t="s">
@@ -7126,10 +7126,10 @@
     </row>
     <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="17" spans="2:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -7325,10 +7325,10 @@
     </row>
     <row r="18" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R18" t="s">
         <v>1</v>
